--- a/static/Models/Regression/Equation/Metals.xlsx
+++ b/static/Models/Regression/Equation/Metals.xlsx
@@ -637,7 +637,7 @@
     <t>intercept</t>
   </si>
   <si>
-    <t>2024-02-23</t>
+    <t>2024-02-26</t>
   </si>
 </sst>
 </file>
@@ -1629,622 +1629,622 @@
         <v>207</v>
       </c>
       <c r="B2">
-        <v>-0.004598204046487808</v>
+        <v>-0.00186233245767653</v>
       </c>
       <c r="C2">
-        <v>-0.01957505382597446</v>
+        <v>-0.01614782027900219</v>
       </c>
       <c r="D2">
-        <v>-0.0214975792914629</v>
+        <v>-0.02000196650624275</v>
       </c>
       <c r="E2">
-        <v>0.09938456118106842</v>
+        <v>0.09482187032699585</v>
       </c>
       <c r="F2">
-        <v>-0.008199689909815788</v>
+        <v>-0.008437827229499817</v>
       </c>
       <c r="G2">
-        <v>0.09412336349487305</v>
+        <v>0.09692957997322083</v>
       </c>
       <c r="H2">
-        <v>-0.004761848133057356</v>
+        <v>0.008796143345534801</v>
       </c>
       <c r="I2">
-        <v>-0.008786075748503208</v>
+        <v>-0.008263316005468369</v>
       </c>
       <c r="J2">
-        <v>-0.196367084980011</v>
+        <v>-0.1938949227333069</v>
       </c>
       <c r="K2">
-        <v>-0.004694677889347076</v>
+        <v>0.001293900888413191</v>
       </c>
       <c r="L2">
-        <v>0.002240028465166688</v>
+        <v>0.005510144401341677</v>
       </c>
       <c r="M2">
-        <v>0.004983373451977968</v>
+        <v>-0.0016611956525594</v>
       </c>
       <c r="N2">
-        <v>0.0005088799516670406</v>
+        <v>0.0007394721615128219</v>
       </c>
       <c r="O2">
-        <v>0.07402610033750534</v>
+        <v>0.06506618112325668</v>
       </c>
       <c r="P2">
-        <v>0.02669475413858891</v>
+        <v>0.0257771722972393</v>
       </c>
       <c r="Q2">
-        <v>0.02540368586778641</v>
+        <v>0.02753317356109619</v>
       </c>
       <c r="R2">
-        <v>0.001507520792074502</v>
+        <v>-0.005944013595581055</v>
       </c>
       <c r="S2">
-        <v>-0.01904044300317764</v>
+        <v>-0.01071856636554003</v>
       </c>
       <c r="T2">
-        <v>-0.02169654332101345</v>
+        <v>-0.02422877587378025</v>
       </c>
       <c r="U2">
-        <v>0.01530963834375143</v>
+        <v>0.004943761974573135</v>
       </c>
       <c r="V2">
-        <v>-0.001129215001128614</v>
+        <v>-0.00344230025075376</v>
       </c>
       <c r="W2">
-        <v>0.1112612634897232</v>
+        <v>0.1121499910950661</v>
       </c>
       <c r="X2">
-        <v>0.002971136942505836</v>
+        <v>-0.003770292736589909</v>
       </c>
       <c r="Y2">
-        <v>0.04945649951696396</v>
+        <v>0.06053463742136955</v>
       </c>
       <c r="Z2">
-        <v>0.1143496334552765</v>
+        <v>0.1046378090977669</v>
       </c>
       <c r="AA2">
-        <v>-0.00236588204279542</v>
+        <v>-0.0006353537901304662</v>
       </c>
       <c r="AB2">
-        <v>-0.02512168511748314</v>
+        <v>-0.02079503238201141</v>
       </c>
       <c r="AC2">
-        <v>-0.04461560398340225</v>
+        <v>-0.03339610621333122</v>
       </c>
       <c r="AD2">
-        <v>-0.02716824039816856</v>
+        <v>-0.02630563639104366</v>
       </c>
       <c r="AE2">
-        <v>0.02480579167604446</v>
+        <v>0.03109091706573963</v>
       </c>
       <c r="AF2">
-        <v>-0.003287962405011058</v>
+        <v>-0.008369996212422848</v>
       </c>
       <c r="AG2">
-        <v>0.003382671857252717</v>
+        <v>0.01796305738389492</v>
       </c>
       <c r="AH2">
-        <v>-0.2235740423202515</v>
+        <v>-0.2259407192468643</v>
       </c>
       <c r="AI2">
-        <v>-0.05659729614853859</v>
+        <v>-0.05640373378992081</v>
       </c>
       <c r="AJ2">
-        <v>0.005034978967159986</v>
+        <v>-0.002244203817099333</v>
       </c>
       <c r="AK2">
-        <v>0.01197607256472111</v>
+        <v>0.004623989574611187</v>
       </c>
       <c r="AL2">
-        <v>0.003924558404833078</v>
+        <v>0.004798830952495337</v>
       </c>
       <c r="AM2">
-        <v>0.03318099677562714</v>
+        <v>0.03107424639165401</v>
       </c>
       <c r="AN2">
-        <v>-0.0292484387755394</v>
+        <v>-0.02841239981353283</v>
       </c>
       <c r="AO2">
-        <v>0.001004644553177059</v>
+        <v>0.0003843803133349866</v>
       </c>
       <c r="AP2">
-        <v>0.0528988428413868</v>
+        <v>0.04467714950442314</v>
       </c>
       <c r="AQ2">
-        <v>-0.01124265510588884</v>
+        <v>-0.01135125011205673</v>
       </c>
       <c r="AR2">
-        <v>-0.002755396068096161</v>
+        <v>-0.006599956192076206</v>
       </c>
       <c r="AS2">
-        <v>0.03445884212851524</v>
+        <v>0.0343436673283577</v>
       </c>
       <c r="AT2">
-        <v>0.03802031278610229</v>
+        <v>0.03920208662748337</v>
       </c>
       <c r="AU2">
-        <v>-0.08509091287851334</v>
+        <v>-0.08286821842193604</v>
       </c>
       <c r="AV2">
-        <v>-0.03366776555776596</v>
+        <v>-0.03871230781078339</v>
       </c>
       <c r="AW2">
-        <v>-0.006358005106449127</v>
+        <v>-0.002786355558782816</v>
       </c>
       <c r="AX2">
-        <v>-0.003998562693595886</v>
+        <v>-0.004352645482867956</v>
       </c>
       <c r="AY2">
-        <v>-0.09909879416227341</v>
+        <v>-0.09410233050584793</v>
       </c>
       <c r="AZ2">
-        <v>0.0283439215272665</v>
+        <v>0.02476724237203598</v>
       </c>
       <c r="BA2">
-        <v>-0.06786565482616425</v>
+        <v>-0.06445464491844177</v>
       </c>
       <c r="BB2">
-        <v>-0.07680398970842361</v>
+        <v>-0.06578883528709412</v>
       </c>
       <c r="BC2">
-        <v>-0.003643566044047475</v>
+        <v>-0.000351002934621647</v>
       </c>
       <c r="BD2">
-        <v>0.1098720952868462</v>
+        <v>0.111108124256134</v>
       </c>
       <c r="BE2">
-        <v>-0.01251763943582773</v>
+        <v>-0.02017310447990894</v>
       </c>
       <c r="BF2">
-        <v>0.0216399859637022</v>
+        <v>0.0321064293384552</v>
       </c>
       <c r="BG2">
-        <v>0.03672485798597336</v>
+        <v>0.03760291635990143</v>
       </c>
       <c r="BH2">
-        <v>-0.006005611270666122</v>
+        <v>0.002873785328119993</v>
       </c>
       <c r="BI2">
-        <v>0.1236233189702034</v>
+        <v>0.1204301342368126</v>
       </c>
       <c r="BJ2">
-        <v>-0.02443304099142551</v>
+        <v>-0.02592136152088642</v>
       </c>
       <c r="BK2">
-        <v>-0.01691402681171894</v>
+        <v>-0.01763488352298737</v>
       </c>
       <c r="BL2">
-        <v>0.02338804304599762</v>
+        <v>0.02672683633863926</v>
       </c>
       <c r="BM2">
-        <v>0.01484988816082478</v>
+        <v>0.01363339647650719</v>
       </c>
       <c r="BN2">
-        <v>-0.09422347694635391</v>
+        <v>-0.1006647199392319</v>
       </c>
       <c r="BO2">
-        <v>0.03438832238316536</v>
+        <v>0.03609510138630867</v>
       </c>
       <c r="BP2">
-        <v>0.02361897751688957</v>
+        <v>0.02301309630274773</v>
       </c>
       <c r="BQ2">
-        <v>0.02563844248652458</v>
+        <v>0.02157673239707947</v>
       </c>
       <c r="BR2">
-        <v>0.009393963031470776</v>
+        <v>0.005396945867687464</v>
       </c>
       <c r="BS2">
-        <v>-0.01131284981966019</v>
+        <v>-0.01419083774089813</v>
       </c>
       <c r="BT2">
-        <v>-0.006181692238897085</v>
+        <v>-0.004503278061747551</v>
       </c>
       <c r="BU2">
-        <v>0.004998809657990932</v>
+        <v>0.004698988981544971</v>
       </c>
       <c r="BV2">
-        <v>-0.009925012476742268</v>
+        <v>-0.00990662444382906</v>
       </c>
       <c r="BW2">
-        <v>-0.01081589423120022</v>
+        <v>-0.007692254614084959</v>
       </c>
       <c r="BX2">
-        <v>0.1264913529157639</v>
+        <v>0.1256564259529114</v>
       </c>
       <c r="BY2">
-        <v>-0.01569494977593422</v>
+        <v>-0.01191420573741198</v>
       </c>
       <c r="BZ2">
-        <v>0.02525761909782887</v>
+        <v>0.02806567214429379</v>
       </c>
       <c r="CA2">
-        <v>0.01599551923573017</v>
+        <v>0.01969552598893642</v>
       </c>
       <c r="CB2">
-        <v>-0.1194262951612473</v>
+        <v>-0.121125116944313</v>
       </c>
       <c r="CC2">
-        <v>0.008317050524055958</v>
+        <v>0.009274869225919247</v>
       </c>
       <c r="CD2">
-        <v>-0.004593337886035442</v>
+        <v>-0.006069792434573174</v>
       </c>
       <c r="CE2">
-        <v>0.03559047728776932</v>
+        <v>0.03070246800780296</v>
       </c>
       <c r="CF2">
-        <v>0.02015380561351776</v>
+        <v>0.02189382165670395</v>
       </c>
       <c r="CG2">
-        <v>-0.003147473325952888</v>
+        <v>0.003912908956408501</v>
       </c>
       <c r="CH2">
-        <v>-0.01909800060093403</v>
+        <v>-0.02718082629144192</v>
       </c>
       <c r="CI2">
-        <v>-0.03450563922524452</v>
+        <v>-0.03240662813186646</v>
       </c>
       <c r="CJ2">
-        <v>-0.001203609514050186</v>
+        <v>0.008347758091986179</v>
       </c>
       <c r="CK2">
-        <v>0.01787456683814526</v>
+        <v>0.01858466118574142</v>
       </c>
       <c r="CL2">
-        <v>0.0008496475638821721</v>
+        <v>0.000739771407097578</v>
       </c>
       <c r="CM2">
-        <v>0.07861287891864777</v>
+        <v>0.07422266155481339</v>
       </c>
       <c r="CN2">
-        <v>-0.001432811142876744</v>
+        <v>-0.007399743422865868</v>
       </c>
       <c r="CO2">
-        <v>0.004176918417215347</v>
+        <v>0.005131031852215528</v>
       </c>
       <c r="CP2">
-        <v>-0.05777497217059135</v>
+        <v>-0.05701281130313873</v>
       </c>
       <c r="CQ2">
-        <v>0.02352351881563663</v>
+        <v>0.03059684671461582</v>
       </c>
       <c r="CR2">
-        <v>-0.002515689469873905</v>
+        <v>0.00147762440610677</v>
       </c>
       <c r="CS2">
-        <v>0.003066969104111195</v>
+        <v>0.00113393587525934</v>
       </c>
       <c r="CT2">
-        <v>0.005376271903514862</v>
+        <v>0.006378094665706158</v>
       </c>
       <c r="CU2">
-        <v>0.01539439242333174</v>
+        <v>0.01030182279646397</v>
       </c>
       <c r="CV2">
-        <v>0.002968160202726722</v>
+        <v>0.004455381073057652</v>
       </c>
       <c r="CW2">
-        <v>0.01684069819748402</v>
+        <v>0.0136589715257287</v>
       </c>
       <c r="CX2">
-        <v>0.009182879701256752</v>
+        <v>0.006273982580751181</v>
       </c>
       <c r="CY2">
-        <v>-0.02714516408741474</v>
+        <v>-0.02199483476579189</v>
       </c>
       <c r="CZ2">
-        <v>0.001843950594775379</v>
+        <v>0.003806281834840775</v>
       </c>
       <c r="DA2">
-        <v>-0.03627007454633713</v>
+        <v>-0.0320325642824173</v>
       </c>
       <c r="DB2">
-        <v>-0.01794032379984856</v>
+        <v>-0.02526103146374226</v>
       </c>
       <c r="DC2">
-        <v>-0.002733159577473998</v>
+        <v>-8.821377559797838E-05</v>
       </c>
       <c r="DD2">
-        <v>0.2314977645874023</v>
+        <v>0.2279452830553055</v>
       </c>
       <c r="DE2">
-        <v>-0.009905263781547546</v>
+        <v>-0.009057104587554932</v>
       </c>
       <c r="DF2">
-        <v>0.0559685230255127</v>
+        <v>0.05285720154643059</v>
       </c>
       <c r="DG2">
-        <v>0.006727088708430529</v>
+        <v>0.01180755067616701</v>
       </c>
       <c r="DH2">
-        <v>-0.005173036828637123</v>
+        <v>-0.01183287240564823</v>
       </c>
       <c r="DI2">
-        <v>0.01112887263298035</v>
+        <v>0.002426777500659227</v>
       </c>
       <c r="DJ2">
-        <v>0.07681827247142792</v>
+        <v>0.07584866881370544</v>
       </c>
       <c r="DK2">
-        <v>-0.1190093904733658</v>
+        <v>-0.1188990697264671</v>
       </c>
       <c r="DL2">
-        <v>-0.1474861949682236</v>
+        <v>-0.1438097357749939</v>
       </c>
       <c r="DM2">
-        <v>-0.01032238639891148</v>
+        <v>-0.003970080055296421</v>
       </c>
       <c r="DN2">
-        <v>-0.04839321598410606</v>
+        <v>-0.04710366204380989</v>
       </c>
       <c r="DO2">
-        <v>-0.009020430035889149</v>
+        <v>-0.0115241352468729</v>
       </c>
       <c r="DP2">
-        <v>-0.005353505723178387</v>
+        <v>-0.003174804383888841</v>
       </c>
       <c r="DQ2">
-        <v>-0.0001345794153166935</v>
+        <v>0.001229771878570318</v>
       </c>
       <c r="DR2">
-        <v>-0.006382342893630266</v>
+        <v>-0.01155155245214701</v>
       </c>
       <c r="DS2">
-        <v>-0.04709305241703987</v>
+        <v>-0.05150847136974335</v>
       </c>
       <c r="DT2">
-        <v>0.03435294702649117</v>
+        <v>0.02869088016450405</v>
       </c>
       <c r="DU2">
-        <v>0.02751199528574944</v>
+        <v>0.03161559626460075</v>
       </c>
       <c r="DV2">
-        <v>-0.001969138160347939</v>
+        <v>0.0008288474637083709</v>
       </c>
       <c r="DW2">
-        <v>-0.005674762651324272</v>
+        <v>0.001135942991822958</v>
       </c>
       <c r="DX2">
-        <v>0.008036231622099876</v>
+        <v>0.009725376963615417</v>
       </c>
       <c r="DY2">
-        <v>-0.01406929548829794</v>
+        <v>-0.001871461747214198</v>
       </c>
       <c r="DZ2">
-        <v>-0.001671259058639407</v>
+        <v>-0.002182781929150224</v>
       </c>
       <c r="EA2">
-        <v>0.0006791339255869389</v>
+        <v>0.006246444303542376</v>
       </c>
       <c r="EB2">
-        <v>-0.03179950267076492</v>
+        <v>-0.03064479865133762</v>
       </c>
       <c r="EC2">
-        <v>0.009250731207430363</v>
+        <v>-0.001483464380726218</v>
       </c>
       <c r="ED2">
-        <v>0.1033062487840652</v>
+        <v>0.1002498045563698</v>
       </c>
       <c r="EE2">
-        <v>-0.01135655026882887</v>
+        <v>-0.01012681983411312</v>
       </c>
       <c r="EF2">
-        <v>-0.03622919693589211</v>
+        <v>-0.04243496432900429</v>
       </c>
       <c r="EG2">
-        <v>0.02598226256668568</v>
+        <v>0.02535110153257847</v>
       </c>
       <c r="EH2">
-        <v>-0.262485682964325</v>
+        <v>-0.2642306983470917</v>
       </c>
       <c r="EI2">
-        <v>0.01231731567531824</v>
+        <v>0.01266939751803875</v>
       </c>
       <c r="EJ2">
-        <v>0.03204676136374474</v>
+        <v>0.02825033664703369</v>
       </c>
       <c r="EK2">
-        <v>-0.003157943719998002</v>
+        <v>-0.003785206004977226</v>
       </c>
       <c r="EL2">
-        <v>-0.01104151830077171</v>
+        <v>-0.01034443732351065</v>
       </c>
       <c r="EM2">
-        <v>-0.06285542249679565</v>
+        <v>-0.06926016509532928</v>
       </c>
       <c r="EN2">
-        <v>-0.06191433221101761</v>
+        <v>-0.06574123352766037</v>
       </c>
       <c r="EO2">
-        <v>0.1102944239974022</v>
+        <v>0.115600198507309</v>
       </c>
       <c r="EP2">
-        <v>0.07814083993434906</v>
+        <v>0.07336006313562393</v>
       </c>
       <c r="EQ2">
-        <v>0.05129379034042358</v>
+        <v>0.0410739928483963</v>
       </c>
       <c r="ER2">
-        <v>-0.01350600924342871</v>
+        <v>-0.01268855854868889</v>
       </c>
       <c r="ES2">
-        <v>-0.04001332446932793</v>
+        <v>-0.04021703079342842</v>
       </c>
       <c r="ET2">
-        <v>0.04442481696605682</v>
+        <v>0.04424909502267838</v>
       </c>
       <c r="EU2">
-        <v>-0.07491033524274826</v>
+        <v>-0.08497384190559387</v>
       </c>
       <c r="EV2">
-        <v>-0.01256291754543781</v>
+        <v>-0.01416482962667942</v>
       </c>
       <c r="EW2">
-        <v>0.1284711211919785</v>
+        <v>0.1279578059911728</v>
       </c>
       <c r="EX2">
-        <v>0.01486697141081095</v>
+        <v>0.01516813412308693</v>
       </c>
       <c r="EY2">
-        <v>-0.009889401495456696</v>
+        <v>-0.01258110255002975</v>
       </c>
       <c r="EZ2">
-        <v>-0.09443844854831696</v>
+        <v>-0.07991164922714233</v>
       </c>
       <c r="FA2">
-        <v>0.002109781606122851</v>
+        <v>-0.002974203089252114</v>
       </c>
       <c r="FB2">
-        <v>0.003186249872669578</v>
+        <v>0.004276735242456198</v>
       </c>
       <c r="FC2">
-        <v>-0.01174954138696194</v>
+        <v>-0.01990983448922634</v>
       </c>
       <c r="FD2">
-        <v>0.000612198025919497</v>
+        <v>0.001616376102901995</v>
       </c>
       <c r="FE2">
-        <v>0.01407619193196297</v>
+        <v>0.01129107270389795</v>
       </c>
       <c r="FF2">
-        <v>0.005169639363884926</v>
+        <v>-0.002594611840322614</v>
       </c>
       <c r="FG2">
-        <v>-0.1737785935401917</v>
+        <v>-0.1833976209163666</v>
       </c>
       <c r="FH2">
-        <v>0.006533275358378887</v>
+        <v>0.0181211419403553</v>
       </c>
       <c r="FI2">
-        <v>0.02111972309648991</v>
+        <v>0.01596828177571297</v>
       </c>
       <c r="FJ2">
-        <v>-0.04214905202388763</v>
+        <v>-0.04341626167297363</v>
       </c>
       <c r="FK2">
-        <v>-0.0236808005720377</v>
+        <v>-0.02428016066551208</v>
       </c>
       <c r="FL2">
-        <v>-0.0837131068110466</v>
+        <v>-0.08896107226610184</v>
       </c>
       <c r="FM2">
-        <v>0.06465087831020355</v>
+        <v>0.07240376621484756</v>
       </c>
       <c r="FN2">
-        <v>-0.02687880210578442</v>
+        <v>-0.02657276950776577</v>
       </c>
       <c r="FO2">
-        <v>-0.00805206410586834</v>
+        <v>0.003006936283782125</v>
       </c>
       <c r="FP2">
-        <v>-0.0002427572617307305</v>
+        <v>0.00896343681961298</v>
       </c>
       <c r="FQ2">
-        <v>-0.003953761421144009</v>
+        <v>-0.003186224261298776</v>
       </c>
       <c r="FR2">
-        <v>0.0003244549443479627</v>
+        <v>0.001616332330740988</v>
       </c>
       <c r="FS2">
-        <v>0.003683727234601974</v>
+        <v>0.004378968849778175</v>
       </c>
       <c r="FT2">
-        <v>0.002041330095380545</v>
+        <v>0.004827189724892378</v>
       </c>
       <c r="FU2">
-        <v>-0.06285905838012695</v>
+        <v>-0.06683167815208435</v>
       </c>
       <c r="FV2">
-        <v>-0.02722829766571522</v>
+        <v>-0.02492839656770229</v>
       </c>
       <c r="FW2">
-        <v>-0.007782963570207357</v>
+        <v>-0.009587242268025875</v>
       </c>
       <c r="FX2">
-        <v>-0.006666124332696199</v>
+        <v>0.00047868731780909</v>
       </c>
       <c r="FY2">
-        <v>0.003363025840371847</v>
+        <v>0.0008258821908384562</v>
       </c>
       <c r="FZ2">
-        <v>0.01043913699686527</v>
+        <v>0.003022321732714772</v>
       </c>
       <c r="GA2">
-        <v>-0.0283239521086216</v>
+        <v>-0.00973867904394865</v>
       </c>
       <c r="GB2">
-        <v>0.005871068220585585</v>
+        <v>0.006670322269201279</v>
       </c>
       <c r="GC2">
-        <v>-0.07732104510068893</v>
+        <v>-0.08040601015090942</v>
       </c>
       <c r="GD2">
-        <v>0.04180646315217018</v>
+        <v>0.03776031360030174</v>
       </c>
       <c r="GE2">
-        <v>-0.008032292127609253</v>
+        <v>-0.007148453965783119</v>
       </c>
       <c r="GF2">
-        <v>-0.04249706119298935</v>
+        <v>-0.04189720749855042</v>
       </c>
       <c r="GG2">
-        <v>-0.04526256024837494</v>
+        <v>-0.04218343645334244</v>
       </c>
       <c r="GH2">
-        <v>0.003570087486878037</v>
+        <v>-0.002939729019999504</v>
       </c>
       <c r="GI2">
-        <v>-0.1004027873277664</v>
+        <v>-0.09707261621952057</v>
       </c>
       <c r="GJ2">
-        <v>-0.007402080111205578</v>
+        <v>-0.004531488753855228</v>
       </c>
       <c r="GK2">
-        <v>-0.04196467250585556</v>
+        <v>-0.03805039823055267</v>
       </c>
       <c r="GL2">
-        <v>-0.1031782776117325</v>
+        <v>-0.1002980321645737</v>
       </c>
       <c r="GM2">
-        <v>0.1002599745988846</v>
+        <v>0.09714595228433609</v>
       </c>
       <c r="GN2">
-        <v>0.04033626243472099</v>
+        <v>0.03433361276984215</v>
       </c>
       <c r="GO2">
-        <v>0.02775576151907444</v>
+        <v>0.02449304610490799</v>
       </c>
       <c r="GP2">
-        <v>0.002289781579747796</v>
+        <v>0.003196940757334232</v>
       </c>
       <c r="GQ2">
-        <v>-0.01045206002891064</v>
+        <v>-0.007718775421380997</v>
       </c>
       <c r="GR2">
-        <v>-0.003984742797911167</v>
+        <v>-0.001416422892361879</v>
       </c>
       <c r="GS2">
-        <v>0.06487970054149628</v>
+        <v>0.06621976941823959</v>
       </c>
       <c r="GT2">
-        <v>0.008692619390785694</v>
+        <v>0.007537990342825651</v>
       </c>
       <c r="GU2">
-        <v>0.01081783883273602</v>
+        <v>0.0143783250823617</v>
       </c>
       <c r="GV2">
-        <v>-0.001673636841587722</v>
+        <v>0.0071021793410182</v>
       </c>
       <c r="GW2">
-        <v>0.01821478456258774</v>
+        <v>0.01956312730908394</v>
       </c>
       <c r="GX2">
-        <v>-0.002733527449890971</v>
+        <v>-0.001410927972756326</v>
       </c>
       <c r="GY2">
-        <v>0.005967112258076668</v>
+        <v>0.006852264050394297</v>
       </c>
     </row>
   </sheetData>

--- a/static/Models/Regression/Equation/Metals.xlsx
+++ b/static/Models/Regression/Equation/Metals.xlsx
@@ -637,7 +637,7 @@
     <t>intercept</t>
   </si>
   <si>
-    <t>2024-02-26</t>
+    <t>2024-02-27</t>
   </si>
 </sst>
 </file>
@@ -1629,622 +1629,622 @@
         <v>207</v>
       </c>
       <c r="B2">
-        <v>-0.00186233245767653</v>
+        <v>-0.003482759930193424</v>
       </c>
       <c r="C2">
-        <v>-0.01614782027900219</v>
+        <v>-0.01402681227773428</v>
       </c>
       <c r="D2">
-        <v>-0.02000196650624275</v>
+        <v>-0.02397900260984898</v>
       </c>
       <c r="E2">
-        <v>0.09482187032699585</v>
+        <v>0.09512310475111008</v>
       </c>
       <c r="F2">
-        <v>-0.008437827229499817</v>
+        <v>-0.00960914883762598</v>
       </c>
       <c r="G2">
-        <v>0.09692957997322083</v>
+        <v>0.0969165712594986</v>
       </c>
       <c r="H2">
-        <v>0.008796143345534801</v>
+        <v>0.005841562524437904</v>
       </c>
       <c r="I2">
-        <v>-0.008263316005468369</v>
+        <v>-0.009740014560520649</v>
       </c>
       <c r="J2">
-        <v>-0.1938949227333069</v>
+        <v>-0.1927553415298462</v>
       </c>
       <c r="K2">
-        <v>0.001293900888413191</v>
+        <v>0.008338311687111855</v>
       </c>
       <c r="L2">
-        <v>0.005510144401341677</v>
+        <v>0.008652153424918652</v>
       </c>
       <c r="M2">
-        <v>-0.0016611956525594</v>
+        <v>-0.002302519511431456</v>
       </c>
       <c r="N2">
-        <v>0.0007394721615128219</v>
+        <v>-0.004209291655570269</v>
       </c>
       <c r="O2">
-        <v>0.06506618112325668</v>
+        <v>0.06564977020025253</v>
       </c>
       <c r="P2">
-        <v>0.0257771722972393</v>
+        <v>0.02452557906508446</v>
       </c>
       <c r="Q2">
-        <v>0.02753317356109619</v>
+        <v>0.02086284011602402</v>
       </c>
       <c r="R2">
-        <v>-0.005944013595581055</v>
+        <v>-0.003872219240292907</v>
       </c>
       <c r="S2">
-        <v>-0.01071856636554003</v>
+        <v>-0.0144080389291048</v>
       </c>
       <c r="T2">
-        <v>-0.02422877587378025</v>
+        <v>-0.02455888502299786</v>
       </c>
       <c r="U2">
-        <v>0.004943761974573135</v>
+        <v>0.006134863011538982</v>
       </c>
       <c r="V2">
-        <v>-0.00344230025075376</v>
+        <v>0.004798112902790308</v>
       </c>
       <c r="W2">
-        <v>0.1121499910950661</v>
+        <v>0.1208082735538483</v>
       </c>
       <c r="X2">
-        <v>-0.003770292736589909</v>
+        <v>-0.00227435096167028</v>
       </c>
       <c r="Y2">
-        <v>0.06053463742136955</v>
+        <v>0.0620136521756649</v>
       </c>
       <c r="Z2">
-        <v>0.1046378090977669</v>
+        <v>0.1013397723436356</v>
       </c>
       <c r="AA2">
-        <v>-0.0006353537901304662</v>
+        <v>0.0007082566735334694</v>
       </c>
       <c r="AB2">
-        <v>-0.02079503238201141</v>
+        <v>-0.02019081264734268</v>
       </c>
       <c r="AC2">
-        <v>-0.03339610621333122</v>
+        <v>-0.0318460501730442</v>
       </c>
       <c r="AD2">
-        <v>-0.02630563639104366</v>
+        <v>-0.02828894928097725</v>
       </c>
       <c r="AE2">
-        <v>0.03109091706573963</v>
+        <v>0.03465195372700691</v>
       </c>
       <c r="AF2">
-        <v>-0.008369996212422848</v>
+        <v>-0.0106265265494585</v>
       </c>
       <c r="AG2">
-        <v>0.01796305738389492</v>
+        <v>0.01174874044954777</v>
       </c>
       <c r="AH2">
-        <v>-0.2259407192468643</v>
+        <v>-0.2247105687856674</v>
       </c>
       <c r="AI2">
-        <v>-0.05640373378992081</v>
+        <v>-0.05557181686162949</v>
       </c>
       <c r="AJ2">
-        <v>-0.002244203817099333</v>
+        <v>0.001493563060648739</v>
       </c>
       <c r="AK2">
-        <v>0.004623989574611187</v>
+        <v>0.006256325170397758</v>
       </c>
       <c r="AL2">
-        <v>0.004798830952495337</v>
+        <v>0.008343664929270744</v>
       </c>
       <c r="AM2">
-        <v>0.03107424639165401</v>
+        <v>0.02988049387931824</v>
       </c>
       <c r="AN2">
-        <v>-0.02841239981353283</v>
+        <v>-0.02285180799663067</v>
       </c>
       <c r="AO2">
-        <v>0.0003843803133349866</v>
+        <v>0.001329927355982363</v>
       </c>
       <c r="AP2">
-        <v>0.04467714950442314</v>
+        <v>0.05258096009492874</v>
       </c>
       <c r="AQ2">
-        <v>-0.01135125011205673</v>
+        <v>-0.01961818151175976</v>
       </c>
       <c r="AR2">
-        <v>-0.006599956192076206</v>
+        <v>-0.01289198361337185</v>
       </c>
       <c r="AS2">
-        <v>0.0343436673283577</v>
+        <v>0.03780462592840195</v>
       </c>
       <c r="AT2">
-        <v>0.03920208662748337</v>
+        <v>0.04292160272598267</v>
       </c>
       <c r="AU2">
-        <v>-0.08286821842193604</v>
+        <v>-0.08291152864694595</v>
       </c>
       <c r="AV2">
-        <v>-0.03871230781078339</v>
+        <v>-0.03401413559913635</v>
       </c>
       <c r="AW2">
-        <v>-0.002786355558782816</v>
+        <v>-0.004120804369449615</v>
       </c>
       <c r="AX2">
-        <v>-0.004352645482867956</v>
+        <v>-0.006071602925658226</v>
       </c>
       <c r="AY2">
-        <v>-0.09410233050584793</v>
+        <v>-0.09142513573169708</v>
       </c>
       <c r="AZ2">
-        <v>0.02476724237203598</v>
+        <v>0.02045362256467342</v>
       </c>
       <c r="BA2">
-        <v>-0.06445464491844177</v>
+        <v>-0.06555978208780289</v>
       </c>
       <c r="BB2">
-        <v>-0.06578883528709412</v>
+        <v>-0.06521562486886978</v>
       </c>
       <c r="BC2">
-        <v>-0.000351002934621647</v>
+        <v>-0.003854006994515657</v>
       </c>
       <c r="BD2">
-        <v>0.111108124256134</v>
+        <v>0.109268955886364</v>
       </c>
       <c r="BE2">
-        <v>-0.02017310447990894</v>
+        <v>-0.0190842654556036</v>
       </c>
       <c r="BF2">
-        <v>0.0321064293384552</v>
+        <v>0.03413328155875206</v>
       </c>
       <c r="BG2">
-        <v>0.03760291635990143</v>
+        <v>0.03598145395517349</v>
       </c>
       <c r="BH2">
-        <v>0.002873785328119993</v>
+        <v>8.985734893940389E-05</v>
       </c>
       <c r="BI2">
-        <v>0.1204301342368126</v>
+        <v>0.1193591505289078</v>
       </c>
       <c r="BJ2">
-        <v>-0.02592136152088642</v>
+        <v>-0.02442052587866783</v>
       </c>
       <c r="BK2">
-        <v>-0.01763488352298737</v>
+        <v>-0.01588022336363792</v>
       </c>
       <c r="BL2">
-        <v>0.02672683633863926</v>
+        <v>0.0252932608127594</v>
       </c>
       <c r="BM2">
-        <v>0.01363339647650719</v>
+        <v>0.01222283486276865</v>
       </c>
       <c r="BN2">
-        <v>-0.1006647199392319</v>
+        <v>-0.09010898321866989</v>
       </c>
       <c r="BO2">
-        <v>0.03609510138630867</v>
+        <v>0.04068035259842873</v>
       </c>
       <c r="BP2">
-        <v>0.02301309630274773</v>
+        <v>0.0257671345025301</v>
       </c>
       <c r="BQ2">
-        <v>0.02157673239707947</v>
+        <v>0.01870987191796303</v>
       </c>
       <c r="BR2">
-        <v>0.005396945867687464</v>
+        <v>0.001087486278265715</v>
       </c>
       <c r="BS2">
-        <v>-0.01419083774089813</v>
+        <v>-0.008348723873496056</v>
       </c>
       <c r="BT2">
-        <v>-0.004503278061747551</v>
+        <v>-0.002083885250613093</v>
       </c>
       <c r="BU2">
-        <v>0.004698988981544971</v>
+        <v>0.005229480098932981</v>
       </c>
       <c r="BV2">
-        <v>-0.00990662444382906</v>
+        <v>-0.009586766362190247</v>
       </c>
       <c r="BW2">
-        <v>-0.007692254614084959</v>
+        <v>-0.006913938093930483</v>
       </c>
       <c r="BX2">
-        <v>0.1256564259529114</v>
+        <v>0.1281138211488724</v>
       </c>
       <c r="BY2">
-        <v>-0.01191420573741198</v>
+        <v>-0.01391942705959082</v>
       </c>
       <c r="BZ2">
-        <v>0.02806567214429379</v>
+        <v>0.02927134558558464</v>
       </c>
       <c r="CA2">
-        <v>0.01969552598893642</v>
+        <v>0.01678497716784477</v>
       </c>
       <c r="CB2">
-        <v>-0.121125116944313</v>
+        <v>-0.1172399744391441</v>
       </c>
       <c r="CC2">
-        <v>0.009274869225919247</v>
+        <v>0.008141845464706421</v>
       </c>
       <c r="CD2">
-        <v>-0.006069792434573174</v>
+        <v>-0.002167633967474103</v>
       </c>
       <c r="CE2">
-        <v>0.03070246800780296</v>
+        <v>0.03230796754360199</v>
       </c>
       <c r="CF2">
-        <v>0.02189382165670395</v>
+        <v>0.02372455596923828</v>
       </c>
       <c r="CG2">
-        <v>0.003912908956408501</v>
+        <v>0.006912268232554197</v>
       </c>
       <c r="CH2">
-        <v>-0.02718082629144192</v>
+        <v>-0.02615925297141075</v>
       </c>
       <c r="CI2">
-        <v>-0.03240662813186646</v>
+        <v>-0.03488439694046974</v>
       </c>
       <c r="CJ2">
-        <v>0.008347758091986179</v>
+        <v>0.007270413916558027</v>
       </c>
       <c r="CK2">
-        <v>0.01858466118574142</v>
+        <v>0.01684228330850601</v>
       </c>
       <c r="CL2">
-        <v>0.000739771407097578</v>
+        <v>-7.601443212479353E-05</v>
       </c>
       <c r="CM2">
-        <v>0.07422266155481339</v>
+        <v>0.0741199254989624</v>
       </c>
       <c r="CN2">
-        <v>-0.007399743422865868</v>
+        <v>-0.002502907067537308</v>
       </c>
       <c r="CO2">
-        <v>0.005131031852215528</v>
+        <v>0.002451890613883734</v>
       </c>
       <c r="CP2">
-        <v>-0.05701281130313873</v>
+        <v>-0.06255384534597397</v>
       </c>
       <c r="CQ2">
-        <v>0.03059684671461582</v>
+        <v>0.03035336546599865</v>
       </c>
       <c r="CR2">
-        <v>0.00147762440610677</v>
+        <v>0.002189627848565578</v>
       </c>
       <c r="CS2">
-        <v>0.00113393587525934</v>
+        <v>0.0005549554480239749</v>
       </c>
       <c r="CT2">
-        <v>0.006378094665706158</v>
+        <v>0.005649783182889223</v>
       </c>
       <c r="CU2">
-        <v>0.01030182279646397</v>
+        <v>0.01467284932732582</v>
       </c>
       <c r="CV2">
-        <v>0.004455381073057652</v>
+        <v>0.003456912469118834</v>
       </c>
       <c r="CW2">
-        <v>0.0136589715257287</v>
+        <v>0.01648419722914696</v>
       </c>
       <c r="CX2">
-        <v>0.006273982580751181</v>
+        <v>0.009957156144082546</v>
       </c>
       <c r="CY2">
-        <v>-0.02199483476579189</v>
+        <v>-0.02288567274808884</v>
       </c>
       <c r="CZ2">
-        <v>0.003806281834840775</v>
+        <v>0.005024611949920654</v>
       </c>
       <c r="DA2">
-        <v>-0.0320325642824173</v>
+        <v>-0.03566085547208786</v>
       </c>
       <c r="DB2">
-        <v>-0.02526103146374226</v>
+        <v>-0.02458751946687698</v>
       </c>
       <c r="DC2">
-        <v>-8.821377559797838E-05</v>
+        <v>0.005881760269403458</v>
       </c>
       <c r="DD2">
-        <v>0.2279452830553055</v>
+        <v>0.2293899208307266</v>
       </c>
       <c r="DE2">
-        <v>-0.009057104587554932</v>
+        <v>-0.0112223532050848</v>
       </c>
       <c r="DF2">
-        <v>0.05285720154643059</v>
+        <v>0.05397516861557961</v>
       </c>
       <c r="DG2">
-        <v>0.01180755067616701</v>
+        <v>0.006054965313524008</v>
       </c>
       <c r="DH2">
-        <v>-0.01183287240564823</v>
+        <v>-0.01078469026833773</v>
       </c>
       <c r="DI2">
-        <v>0.002426777500659227</v>
+        <v>0.0007992408354766667</v>
       </c>
       <c r="DJ2">
-        <v>0.07584866881370544</v>
+        <v>0.07251972705125809</v>
       </c>
       <c r="DK2">
-        <v>-0.1188990697264671</v>
+        <v>-0.1176444664597511</v>
       </c>
       <c r="DL2">
-        <v>-0.1438097357749939</v>
+        <v>-0.1385499984025955</v>
       </c>
       <c r="DM2">
-        <v>-0.003970080055296421</v>
+        <v>-0.005865355953574181</v>
       </c>
       <c r="DN2">
-        <v>-0.04710366204380989</v>
+        <v>-0.04864438995718956</v>
       </c>
       <c r="DO2">
-        <v>-0.0115241352468729</v>
+        <v>-0.01295799296349287</v>
       </c>
       <c r="DP2">
-        <v>-0.003174804383888841</v>
+        <v>-0.004922592546790838</v>
       </c>
       <c r="DQ2">
-        <v>0.001229771878570318</v>
+        <v>-0.0005213674157857895</v>
       </c>
       <c r="DR2">
-        <v>-0.01155155245214701</v>
+        <v>-0.009786447510123253</v>
       </c>
       <c r="DS2">
-        <v>-0.05150847136974335</v>
+        <v>-0.05143645033240318</v>
       </c>
       <c r="DT2">
-        <v>0.02869088016450405</v>
+        <v>0.03787048906087875</v>
       </c>
       <c r="DU2">
-        <v>0.03161559626460075</v>
+        <v>0.03270662203431129</v>
       </c>
       <c r="DV2">
-        <v>0.0008288474637083709</v>
+        <v>-0.002311708172783256</v>
       </c>
       <c r="DW2">
-        <v>0.001135942991822958</v>
+        <v>0.00546592241153121</v>
       </c>
       <c r="DX2">
-        <v>0.009725376963615417</v>
+        <v>0.008250861428678036</v>
       </c>
       <c r="DY2">
-        <v>-0.001871461747214198</v>
+        <v>-0.003018012503162026</v>
       </c>
       <c r="DZ2">
-        <v>-0.002182781929150224</v>
+        <v>-0.00789380818605423</v>
       </c>
       <c r="EA2">
-        <v>0.006246444303542376</v>
+        <v>0.007243371102958918</v>
       </c>
       <c r="EB2">
-        <v>-0.03064479865133762</v>
+        <v>-0.032852653414011</v>
       </c>
       <c r="EC2">
-        <v>-0.001483464380726218</v>
+        <v>-0.00170138047542423</v>
       </c>
       <c r="ED2">
-        <v>0.1002498045563698</v>
+        <v>0.09989313781261444</v>
       </c>
       <c r="EE2">
-        <v>-0.01012681983411312</v>
+        <v>-0.01219590567052364</v>
       </c>
       <c r="EF2">
-        <v>-0.04243496432900429</v>
+        <v>-0.04238305613398552</v>
       </c>
       <c r="EG2">
-        <v>0.02535110153257847</v>
+        <v>0.02486539259552956</v>
       </c>
       <c r="EH2">
-        <v>-0.2642306983470917</v>
+        <v>-0.2605694532394409</v>
       </c>
       <c r="EI2">
-        <v>0.01266939751803875</v>
+        <v>0.01335375942289829</v>
       </c>
       <c r="EJ2">
-        <v>0.02825033664703369</v>
+        <v>0.02223680168390274</v>
       </c>
       <c r="EK2">
-        <v>-0.003785206004977226</v>
+        <v>-0.004640024155378342</v>
       </c>
       <c r="EL2">
-        <v>-0.01034443732351065</v>
+        <v>-0.01247671153396368</v>
       </c>
       <c r="EM2">
-        <v>-0.06926016509532928</v>
+        <v>-0.06841541081666946</v>
       </c>
       <c r="EN2">
-        <v>-0.06574123352766037</v>
+        <v>-0.06608518958091736</v>
       </c>
       <c r="EO2">
-        <v>0.115600198507309</v>
+        <v>0.1127414852380753</v>
       </c>
       <c r="EP2">
-        <v>0.07336006313562393</v>
+        <v>0.0732426792383194</v>
       </c>
       <c r="EQ2">
-        <v>0.0410739928483963</v>
+        <v>0.0385306105017662</v>
       </c>
       <c r="ER2">
-        <v>-0.01268855854868889</v>
+        <v>-0.0105357663705945</v>
       </c>
       <c r="ES2">
-        <v>-0.04021703079342842</v>
+        <v>-0.03739378973841667</v>
       </c>
       <c r="ET2">
-        <v>0.04424909502267838</v>
+        <v>0.04371123760938644</v>
       </c>
       <c r="EU2">
-        <v>-0.08497384190559387</v>
+        <v>-0.08026627451181412</v>
       </c>
       <c r="EV2">
-        <v>-0.01416482962667942</v>
+        <v>-0.009158395230770111</v>
       </c>
       <c r="EW2">
-        <v>0.1279578059911728</v>
+        <v>0.1245580315589905</v>
       </c>
       <c r="EX2">
-        <v>0.01516813412308693</v>
+        <v>0.01743320003151894</v>
       </c>
       <c r="EY2">
-        <v>-0.01258110255002975</v>
+        <v>-0.01252413634210825</v>
       </c>
       <c r="EZ2">
-        <v>-0.07991164922714233</v>
+        <v>-0.08766058832406998</v>
       </c>
       <c r="FA2">
-        <v>-0.002974203089252114</v>
+        <v>-0.0005954652442596853</v>
       </c>
       <c r="FB2">
-        <v>0.004276735242456198</v>
+        <v>0.002076789503917098</v>
       </c>
       <c r="FC2">
-        <v>-0.01990983448922634</v>
+        <v>-0.01653769984841347</v>
       </c>
       <c r="FD2">
-        <v>0.001616376102901995</v>
+        <v>0.003339347895234823</v>
       </c>
       <c r="FE2">
-        <v>0.01129107270389795</v>
+        <v>0.01326648518443108</v>
       </c>
       <c r="FF2">
-        <v>-0.002594611840322614</v>
+        <v>0.003671689890325069</v>
       </c>
       <c r="FG2">
-        <v>-0.1833976209163666</v>
+        <v>-0.1847890019416809</v>
       </c>
       <c r="FH2">
-        <v>0.0181211419403553</v>
+        <v>0.004739819094538689</v>
       </c>
       <c r="FI2">
-        <v>0.01596828177571297</v>
+        <v>0.01954690366983414</v>
       </c>
       <c r="FJ2">
-        <v>-0.04341626167297363</v>
+        <v>-0.04742529988288879</v>
       </c>
       <c r="FK2">
-        <v>-0.02428016066551208</v>
+        <v>-0.02706431597471237</v>
       </c>
       <c r="FL2">
-        <v>-0.08896107226610184</v>
+        <v>-0.08699992299079895</v>
       </c>
       <c r="FM2">
-        <v>0.07240376621484756</v>
+        <v>0.06887634098529816</v>
       </c>
       <c r="FN2">
-        <v>-0.02657276950776577</v>
+        <v>-0.02660977654159069</v>
       </c>
       <c r="FO2">
-        <v>0.003006936283782125</v>
+        <v>-0.001448378781788051</v>
       </c>
       <c r="FP2">
-        <v>0.00896343681961298</v>
+        <v>0.004345853347331285</v>
       </c>
       <c r="FQ2">
-        <v>-0.003186224261298776</v>
+        <v>-0.005599268712103367</v>
       </c>
       <c r="FR2">
-        <v>0.001616332330740988</v>
+        <v>-0.0004655960365198553</v>
       </c>
       <c r="FS2">
-        <v>0.004378968849778175</v>
+        <v>0.003454225370660424</v>
       </c>
       <c r="FT2">
-        <v>0.004827189724892378</v>
+        <v>0.003560462733730674</v>
       </c>
       <c r="FU2">
-        <v>-0.06683167815208435</v>
+        <v>-0.06748808920383453</v>
       </c>
       <c r="FV2">
-        <v>-0.02492839656770229</v>
+        <v>-0.02519502490758896</v>
       </c>
       <c r="FW2">
-        <v>-0.009587242268025875</v>
+        <v>-0.01066732127219439</v>
       </c>
       <c r="FX2">
-        <v>0.00047868731780909</v>
+        <v>-0.00189427228178829</v>
       </c>
       <c r="FY2">
-        <v>0.0008258821908384562</v>
+        <v>0.0006104747299104929</v>
       </c>
       <c r="FZ2">
-        <v>0.003022321732714772</v>
+        <v>0.001760736689902842</v>
       </c>
       <c r="GA2">
-        <v>-0.00973867904394865</v>
+        <v>-0.01764698326587677</v>
       </c>
       <c r="GB2">
-        <v>0.006670322269201279</v>
+        <v>0.0105459401383996</v>
       </c>
       <c r="GC2">
-        <v>-0.08040601015090942</v>
+        <v>-0.08403751999139786</v>
       </c>
       <c r="GD2">
-        <v>0.03776031360030174</v>
+        <v>0.03807543218135834</v>
       </c>
       <c r="GE2">
-        <v>-0.007148453965783119</v>
+        <v>-0.009181746281683445</v>
       </c>
       <c r="GF2">
-        <v>-0.04189720749855042</v>
+        <v>-0.03468838706612587</v>
       </c>
       <c r="GG2">
-        <v>-0.04218343645334244</v>
+        <v>-0.03763075545430183</v>
       </c>
       <c r="GH2">
-        <v>-0.002939729019999504</v>
+        <v>0.003923874348402023</v>
       </c>
       <c r="GI2">
-        <v>-0.09707261621952057</v>
+        <v>-0.0954924076795578</v>
       </c>
       <c r="GJ2">
-        <v>-0.004531488753855228</v>
+        <v>-0.006972178351134062</v>
       </c>
       <c r="GK2">
-        <v>-0.03805039823055267</v>
+        <v>-0.04261714965105057</v>
       </c>
       <c r="GL2">
-        <v>-0.1002980321645737</v>
+        <v>-0.1034059971570969</v>
       </c>
       <c r="GM2">
-        <v>0.09714595228433609</v>
+        <v>0.09045856446027756</v>
       </c>
       <c r="GN2">
-        <v>0.03433361276984215</v>
+        <v>0.03675113990902901</v>
       </c>
       <c r="GO2">
-        <v>0.02449304610490799</v>
+        <v>0.0364682748913765</v>
       </c>
       <c r="GP2">
-        <v>0.003196940757334232</v>
+        <v>0.001762477215379477</v>
       </c>
       <c r="GQ2">
-        <v>-0.007718775421380997</v>
+        <v>-0.005020324140787125</v>
       </c>
       <c r="GR2">
-        <v>-0.001416422892361879</v>
+        <v>0.001405031303875148</v>
       </c>
       <c r="GS2">
-        <v>0.06621976941823959</v>
+        <v>0.05928320810198784</v>
       </c>
       <c r="GT2">
-        <v>0.007537990342825651</v>
+        <v>0.001498036202974617</v>
       </c>
       <c r="GU2">
-        <v>0.0143783250823617</v>
+        <v>0.01479780301451683</v>
       </c>
       <c r="GV2">
-        <v>0.0071021793410182</v>
+        <v>0.006926562171429396</v>
       </c>
       <c r="GW2">
-        <v>0.01956312730908394</v>
+        <v>0.02086347155272961</v>
       </c>
       <c r="GX2">
-        <v>-0.001410927972756326</v>
+        <v>-0.002648110035806894</v>
       </c>
       <c r="GY2">
-        <v>0.006852264050394297</v>
+        <v>0.005058462265878916</v>
       </c>
     </row>
   </sheetData>

--- a/static/Models/Regression/Equation/Metals.xlsx
+++ b/static/Models/Regression/Equation/Metals.xlsx
@@ -637,7 +637,7 @@
     <t>intercept</t>
   </si>
   <si>
-    <t>2024-02-27</t>
+    <t>2024-03-01</t>
   </si>
 </sst>
 </file>
@@ -1629,622 +1629,622 @@
         <v>207</v>
       </c>
       <c r="B2">
-        <v>-0.003482759930193424</v>
+        <v>-0.003420461900532246</v>
       </c>
       <c r="C2">
-        <v>-0.01402681227773428</v>
+        <v>-0.0180949978530407</v>
       </c>
       <c r="D2">
-        <v>-0.02397900260984898</v>
+        <v>-0.0212396401911974</v>
       </c>
       <c r="E2">
-        <v>0.09512310475111008</v>
+        <v>0.08992652595043182</v>
       </c>
       <c r="F2">
-        <v>-0.00960914883762598</v>
+        <v>-0.008370531722903252</v>
       </c>
       <c r="G2">
-        <v>0.0969165712594986</v>
+        <v>0.09710344672203064</v>
       </c>
       <c r="H2">
-        <v>0.005841562524437904</v>
+        <v>0.006355153862386942</v>
       </c>
       <c r="I2">
-        <v>-0.009740014560520649</v>
+        <v>-0.009683950804173946</v>
       </c>
       <c r="J2">
-        <v>-0.1927553415298462</v>
+        <v>-0.1820790469646454</v>
       </c>
       <c r="K2">
-        <v>0.008338311687111855</v>
+        <v>0.003965836949646473</v>
       </c>
       <c r="L2">
-        <v>0.008652153424918652</v>
+        <v>-0.007734733168035746</v>
       </c>
       <c r="M2">
-        <v>-0.002302519511431456</v>
+        <v>0.003974837251007557</v>
       </c>
       <c r="N2">
-        <v>-0.004209291655570269</v>
+        <v>0.006362667307257652</v>
       </c>
       <c r="O2">
-        <v>0.06564977020025253</v>
+        <v>0.0690094381570816</v>
       </c>
       <c r="P2">
-        <v>0.02452557906508446</v>
+        <v>0.0232432521879673</v>
       </c>
       <c r="Q2">
-        <v>0.02086284011602402</v>
+        <v>0.03108370490372181</v>
       </c>
       <c r="R2">
-        <v>-0.003872219240292907</v>
+        <v>-0.002630369504913688</v>
       </c>
       <c r="S2">
-        <v>-0.0144080389291048</v>
+        <v>-0.01363998092710972</v>
       </c>
       <c r="T2">
-        <v>-0.02455888502299786</v>
+        <v>-0.02019497379660606</v>
       </c>
       <c r="U2">
-        <v>0.006134863011538982</v>
+        <v>0.00658239983022213</v>
       </c>
       <c r="V2">
-        <v>0.004798112902790308</v>
+        <v>0.002243053866550326</v>
       </c>
       <c r="W2">
-        <v>0.1208082735538483</v>
+        <v>0.1055391579866409</v>
       </c>
       <c r="X2">
-        <v>-0.00227435096167028</v>
+        <v>0.005785978864878416</v>
       </c>
       <c r="Y2">
-        <v>0.0620136521756649</v>
+        <v>0.06066020578145981</v>
       </c>
       <c r="Z2">
-        <v>0.1013397723436356</v>
+        <v>0.09395423531532288</v>
       </c>
       <c r="AA2">
-        <v>0.0007082566735334694</v>
+        <v>0.001042743213474751</v>
       </c>
       <c r="AB2">
-        <v>-0.02019081264734268</v>
+        <v>-0.02344446443021297</v>
       </c>
       <c r="AC2">
-        <v>-0.0318460501730442</v>
+        <v>-0.04382051527500153</v>
       </c>
       <c r="AD2">
-        <v>-0.02828894928097725</v>
+        <v>-0.02741587907075882</v>
       </c>
       <c r="AE2">
-        <v>0.03465195372700691</v>
+        <v>0.01984712854027748</v>
       </c>
       <c r="AF2">
-        <v>-0.0106265265494585</v>
+        <v>-0.003713303711265326</v>
       </c>
       <c r="AG2">
-        <v>0.01174874044954777</v>
+        <v>0.000297524209599942</v>
       </c>
       <c r="AH2">
-        <v>-0.2247105687856674</v>
+        <v>-0.2093710750341415</v>
       </c>
       <c r="AI2">
-        <v>-0.05557181686162949</v>
+        <v>-0.05253776162862778</v>
       </c>
       <c r="AJ2">
-        <v>0.001493563060648739</v>
+        <v>0.01292334962636232</v>
       </c>
       <c r="AK2">
-        <v>0.006256325170397758</v>
+        <v>0.01216288562864065</v>
       </c>
       <c r="AL2">
-        <v>0.008343664929270744</v>
+        <v>-0.008842959068715572</v>
       </c>
       <c r="AM2">
-        <v>0.02988049387931824</v>
+        <v>0.05130002647638321</v>
       </c>
       <c r="AN2">
-        <v>-0.02285180799663067</v>
+        <v>-0.01395321357995272</v>
       </c>
       <c r="AO2">
-        <v>0.001329927355982363</v>
+        <v>0.006550248712301254</v>
       </c>
       <c r="AP2">
-        <v>0.05258096009492874</v>
+        <v>0.06045097485184669</v>
       </c>
       <c r="AQ2">
-        <v>-0.01961818151175976</v>
+        <v>-0.01022314932197332</v>
       </c>
       <c r="AR2">
-        <v>-0.01289198361337185</v>
+        <v>-0.008975033648312092</v>
       </c>
       <c r="AS2">
-        <v>0.03780462592840195</v>
+        <v>0.04889567196369171</v>
       </c>
       <c r="AT2">
-        <v>0.04292160272598267</v>
+        <v>0.04987690597772598</v>
       </c>
       <c r="AU2">
-        <v>-0.08291152864694595</v>
+        <v>-0.08899996429681778</v>
       </c>
       <c r="AV2">
-        <v>-0.03401413559913635</v>
+        <v>-0.03449869528412819</v>
       </c>
       <c r="AW2">
-        <v>-0.004120804369449615</v>
+        <v>-0.01358028873801231</v>
       </c>
       <c r="AX2">
-        <v>-0.006071602925658226</v>
+        <v>-0.004414951894432306</v>
       </c>
       <c r="AY2">
-        <v>-0.09142513573169708</v>
+        <v>-0.1044913232326508</v>
       </c>
       <c r="AZ2">
-        <v>0.02045362256467342</v>
+        <v>0.02579372748732567</v>
       </c>
       <c r="BA2">
-        <v>-0.06555978208780289</v>
+        <v>-0.05997923761606216</v>
       </c>
       <c r="BB2">
-        <v>-0.06521562486886978</v>
+        <v>-0.05059549584984779</v>
       </c>
       <c r="BC2">
-        <v>-0.003854006994515657</v>
+        <v>-0.008989643305540085</v>
       </c>
       <c r="BD2">
-        <v>0.109268955886364</v>
+        <v>0.1095997393131256</v>
       </c>
       <c r="BE2">
-        <v>-0.0190842654556036</v>
+        <v>-0.004949494730681181</v>
       </c>
       <c r="BF2">
-        <v>0.03413328155875206</v>
+        <v>0.0483422577381134</v>
       </c>
       <c r="BG2">
-        <v>0.03598145395517349</v>
+        <v>0.03646395355463028</v>
       </c>
       <c r="BH2">
-        <v>8.985734893940389E-05</v>
+        <v>-0.001479835831560194</v>
       </c>
       <c r="BI2">
-        <v>0.1193591505289078</v>
+        <v>0.1192612573504448</v>
       </c>
       <c r="BJ2">
-        <v>-0.02442052587866783</v>
+        <v>-0.02134467102587223</v>
       </c>
       <c r="BK2">
-        <v>-0.01588022336363792</v>
+        <v>-0.01922016032040119</v>
       </c>
       <c r="BL2">
-        <v>0.0252932608127594</v>
+        <v>0.02365914918482304</v>
       </c>
       <c r="BM2">
-        <v>0.01222283486276865</v>
+        <v>0.01428107544779778</v>
       </c>
       <c r="BN2">
-        <v>-0.09010898321866989</v>
+        <v>-0.08046741038560867</v>
       </c>
       <c r="BO2">
-        <v>0.04068035259842873</v>
+        <v>0.03448314964771271</v>
       </c>
       <c r="BP2">
-        <v>0.0257671345025301</v>
+        <v>0.02449043653905392</v>
       </c>
       <c r="BQ2">
-        <v>0.01870987191796303</v>
+        <v>0.002800328424200416</v>
       </c>
       <c r="BR2">
-        <v>0.001087486278265715</v>
+        <v>0.004472505766898394</v>
       </c>
       <c r="BS2">
-        <v>-0.008348723873496056</v>
+        <v>-0.01065750513225794</v>
       </c>
       <c r="BT2">
-        <v>-0.002083885250613093</v>
+        <v>0.002900230931118131</v>
       </c>
       <c r="BU2">
-        <v>0.005229480098932981</v>
+        <v>0.006832073908299208</v>
       </c>
       <c r="BV2">
-        <v>-0.009586766362190247</v>
+        <v>-0.009068364277482033</v>
       </c>
       <c r="BW2">
-        <v>-0.006913938093930483</v>
+        <v>0.003492364659905434</v>
       </c>
       <c r="BX2">
-        <v>0.1281138211488724</v>
+        <v>0.1332459002733231</v>
       </c>
       <c r="BY2">
-        <v>-0.01391942705959082</v>
+        <v>-0.01839994639158249</v>
       </c>
       <c r="BZ2">
-        <v>0.02927134558558464</v>
+        <v>0.03988458588719368</v>
       </c>
       <c r="CA2">
-        <v>0.01678497716784477</v>
+        <v>0.01602552644908428</v>
       </c>
       <c r="CB2">
-        <v>-0.1172399744391441</v>
+        <v>-0.112987332046032</v>
       </c>
       <c r="CC2">
-        <v>0.008141845464706421</v>
+        <v>0.009262216277420521</v>
       </c>
       <c r="CD2">
-        <v>-0.002167633967474103</v>
+        <v>-0.002419499214738607</v>
       </c>
       <c r="CE2">
-        <v>0.03230796754360199</v>
+        <v>0.03707185015082359</v>
       </c>
       <c r="CF2">
-        <v>0.02372455596923828</v>
+        <v>0.03285960108041763</v>
       </c>
       <c r="CG2">
-        <v>0.006912268232554197</v>
+        <v>-0.0004320571897551417</v>
       </c>
       <c r="CH2">
-        <v>-0.02615925297141075</v>
+        <v>-0.02450534515082836</v>
       </c>
       <c r="CI2">
-        <v>-0.03488439694046974</v>
+        <v>-0.03513795882463455</v>
       </c>
       <c r="CJ2">
-        <v>0.007270413916558027</v>
+        <v>0.02003012411296368</v>
       </c>
       <c r="CK2">
-        <v>0.01684228330850601</v>
+        <v>0.0157748032361269</v>
       </c>
       <c r="CL2">
-        <v>-7.601443212479353E-05</v>
+        <v>-3.142869172734208E-05</v>
       </c>
       <c r="CM2">
-        <v>0.0741199254989624</v>
+        <v>0.0857752189040184</v>
       </c>
       <c r="CN2">
-        <v>-0.002502907067537308</v>
+        <v>-0.006159189157187939</v>
       </c>
       <c r="CO2">
-        <v>0.002451890613883734</v>
+        <v>0.002476910129189491</v>
       </c>
       <c r="CP2">
-        <v>-0.06255384534597397</v>
+        <v>-0.04909884184598923</v>
       </c>
       <c r="CQ2">
-        <v>0.03035336546599865</v>
+        <v>0.03680117428302765</v>
       </c>
       <c r="CR2">
-        <v>0.002189627848565578</v>
+        <v>-0.007299568504095078</v>
       </c>
       <c r="CS2">
-        <v>0.0005549554480239749</v>
+        <v>0.005154743790626526</v>
       </c>
       <c r="CT2">
-        <v>0.005649783182889223</v>
+        <v>0.006212111562490463</v>
       </c>
       <c r="CU2">
-        <v>0.01467284932732582</v>
+        <v>0.008107251487672329</v>
       </c>
       <c r="CV2">
-        <v>0.003456912469118834</v>
+        <v>0.00464982446283102</v>
       </c>
       <c r="CW2">
-        <v>0.01648419722914696</v>
+        <v>0.01788721606135368</v>
       </c>
       <c r="CX2">
-        <v>0.009957156144082546</v>
+        <v>0.00980296079069376</v>
       </c>
       <c r="CY2">
-        <v>-0.02288567274808884</v>
+        <v>-0.03082895651459694</v>
       </c>
       <c r="CZ2">
-        <v>0.005024611949920654</v>
+        <v>0.005285063292831182</v>
       </c>
       <c r="DA2">
-        <v>-0.03566085547208786</v>
+        <v>-0.04541173204779625</v>
       </c>
       <c r="DB2">
-        <v>-0.02458751946687698</v>
+        <v>-0.02479968406260014</v>
       </c>
       <c r="DC2">
-        <v>0.005881760269403458</v>
+        <v>0.004057790618389845</v>
       </c>
       <c r="DD2">
-        <v>0.2293899208307266</v>
+        <v>0.2430003136396408</v>
       </c>
       <c r="DE2">
-        <v>-0.0112223532050848</v>
+        <v>-0.00684285955503583</v>
       </c>
       <c r="DF2">
-        <v>0.05397516861557961</v>
+        <v>0.05656201019883156</v>
       </c>
       <c r="DG2">
-        <v>0.006054965313524008</v>
+        <v>0.01005645655095577</v>
       </c>
       <c r="DH2">
-        <v>-0.01078469026833773</v>
+        <v>-0.01066563371568918</v>
       </c>
       <c r="DI2">
-        <v>0.0007992408354766667</v>
+        <v>0.003601918928325176</v>
       </c>
       <c r="DJ2">
-        <v>0.07251972705125809</v>
+        <v>0.07391689717769623</v>
       </c>
       <c r="DK2">
-        <v>-0.1176444664597511</v>
+        <v>-0.1147481054067612</v>
       </c>
       <c r="DL2">
-        <v>-0.1385499984025955</v>
+        <v>-0.1349300742149353</v>
       </c>
       <c r="DM2">
-        <v>-0.005865355953574181</v>
+        <v>0.003175673540681601</v>
       </c>
       <c r="DN2">
-        <v>-0.04864438995718956</v>
+        <v>-0.04756870865821838</v>
       </c>
       <c r="DO2">
-        <v>-0.01295799296349287</v>
+        <v>-0.007019216194748878</v>
       </c>
       <c r="DP2">
-        <v>-0.004922592546790838</v>
+        <v>-0.005043728742748499</v>
       </c>
       <c r="DQ2">
-        <v>-0.0005213674157857895</v>
+        <v>0.0005830933223478496</v>
       </c>
       <c r="DR2">
-        <v>-0.009786447510123253</v>
+        <v>0.006014504004269838</v>
       </c>
       <c r="DS2">
-        <v>-0.05143645033240318</v>
+        <v>-0.05697323009371758</v>
       </c>
       <c r="DT2">
-        <v>0.03787048906087875</v>
+        <v>0.04134835675358772</v>
       </c>
       <c r="DU2">
-        <v>0.03270662203431129</v>
+        <v>0.03036457672715187</v>
       </c>
       <c r="DV2">
-        <v>-0.002311708172783256</v>
+        <v>-0.009868651628494263</v>
       </c>
       <c r="DW2">
-        <v>0.00546592241153121</v>
+        <v>-0.006615960039198399</v>
       </c>
       <c r="DX2">
-        <v>0.008250861428678036</v>
+        <v>0.009028227999806404</v>
       </c>
       <c r="DY2">
-        <v>-0.003018012503162026</v>
+        <v>0.01040240190923214</v>
       </c>
       <c r="DZ2">
-        <v>-0.00789380818605423</v>
+        <v>-0.003762768814340234</v>
       </c>
       <c r="EA2">
-        <v>0.007243371102958918</v>
+        <v>0.01076572202146053</v>
       </c>
       <c r="EB2">
-        <v>-0.032852653414011</v>
+        <v>-0.03233944252133369</v>
       </c>
       <c r="EC2">
-        <v>-0.00170138047542423</v>
+        <v>0.00365380709990859</v>
       </c>
       <c r="ED2">
-        <v>0.09989313781261444</v>
+        <v>0.104955293238163</v>
       </c>
       <c r="EE2">
-        <v>-0.01219590567052364</v>
+        <v>-0.009897484444081783</v>
       </c>
       <c r="EF2">
-        <v>-0.04238305613398552</v>
+        <v>-0.0335494801402092</v>
       </c>
       <c r="EG2">
-        <v>0.02486539259552956</v>
+        <v>0.04002923518419266</v>
       </c>
       <c r="EH2">
-        <v>-0.2605694532394409</v>
+        <v>-0.2583944201469421</v>
       </c>
       <c r="EI2">
-        <v>0.01335375942289829</v>
+        <v>0.0266499686986208</v>
       </c>
       <c r="EJ2">
-        <v>0.02223680168390274</v>
+        <v>0.02767266519367695</v>
       </c>
       <c r="EK2">
-        <v>-0.004640024155378342</v>
+        <v>-0.003320640651509166</v>
       </c>
       <c r="EL2">
-        <v>-0.01247671153396368</v>
+        <v>-0.01091731153428555</v>
       </c>
       <c r="EM2">
-        <v>-0.06841541081666946</v>
+        <v>-0.07038356363773346</v>
       </c>
       <c r="EN2">
-        <v>-0.06608518958091736</v>
+        <v>-0.06557005643844604</v>
       </c>
       <c r="EO2">
-        <v>0.1127414852380753</v>
+        <v>0.09447520971298218</v>
       </c>
       <c r="EP2">
-        <v>0.0732426792383194</v>
+        <v>0.07280582189559937</v>
       </c>
       <c r="EQ2">
-        <v>0.0385306105017662</v>
+        <v>0.02967941574752331</v>
       </c>
       <c r="ER2">
-        <v>-0.0105357663705945</v>
+        <v>0.00297758518718183</v>
       </c>
       <c r="ES2">
-        <v>-0.03739378973841667</v>
+        <v>-0.01853475905954838</v>
       </c>
       <c r="ET2">
-        <v>0.04371123760938644</v>
+        <v>0.04207144305109978</v>
       </c>
       <c r="EU2">
-        <v>-0.08026627451181412</v>
+        <v>-0.07461808621883392</v>
       </c>
       <c r="EV2">
-        <v>-0.009158395230770111</v>
+        <v>-0.01155453454703093</v>
       </c>
       <c r="EW2">
-        <v>0.1245580315589905</v>
+        <v>0.1313740015029907</v>
       </c>
       <c r="EX2">
-        <v>0.01743320003151894</v>
+        <v>0.005280491895973682</v>
       </c>
       <c r="EY2">
-        <v>-0.01252413634210825</v>
+        <v>-0.01145790703594685</v>
       </c>
       <c r="EZ2">
-        <v>-0.08766058832406998</v>
+        <v>-0.08288536220788956</v>
       </c>
       <c r="FA2">
-        <v>-0.0005954652442596853</v>
+        <v>0.007197534665465355</v>
       </c>
       <c r="FB2">
-        <v>0.002076789503917098</v>
+        <v>0.003825400723144412</v>
       </c>
       <c r="FC2">
-        <v>-0.01653769984841347</v>
+        <v>-0.0183259192854166</v>
       </c>
       <c r="FD2">
-        <v>0.003339347895234823</v>
+        <v>0.001915217726491392</v>
       </c>
       <c r="FE2">
-        <v>0.01326648518443108</v>
+        <v>0.009061957709491253</v>
       </c>
       <c r="FF2">
-        <v>0.003671689890325069</v>
+        <v>0.01022013649344444</v>
       </c>
       <c r="FG2">
-        <v>-0.1847890019416809</v>
+        <v>-0.1794600784778595</v>
       </c>
       <c r="FH2">
-        <v>0.004739819094538689</v>
+        <v>0.004048316273838282</v>
       </c>
       <c r="FI2">
-        <v>0.01954690366983414</v>
+        <v>0.02228949964046478</v>
       </c>
       <c r="FJ2">
-        <v>-0.04742529988288879</v>
+        <v>-0.036799356341362</v>
       </c>
       <c r="FK2">
-        <v>-0.02706431597471237</v>
+        <v>-0.02638643607497215</v>
       </c>
       <c r="FL2">
-        <v>-0.08699992299079895</v>
+        <v>-0.08258161693811417</v>
       </c>
       <c r="FM2">
-        <v>0.06887634098529816</v>
+        <v>0.06825415045022964</v>
       </c>
       <c r="FN2">
-        <v>-0.02660977654159069</v>
+        <v>-0.02555941604077816</v>
       </c>
       <c r="FO2">
-        <v>-0.001448378781788051</v>
+        <v>0.01073119416832924</v>
       </c>
       <c r="FP2">
-        <v>0.004345853347331285</v>
+        <v>0.008655034005641937</v>
       </c>
       <c r="FQ2">
-        <v>-0.005599268712103367</v>
+        <v>-0.004652706906199455</v>
       </c>
       <c r="FR2">
-        <v>-0.0004655960365198553</v>
+        <v>0.0002463534183334559</v>
       </c>
       <c r="FS2">
-        <v>0.003454225370660424</v>
+        <v>0.004185162950307131</v>
       </c>
       <c r="FT2">
-        <v>0.003560462733730674</v>
+        <v>0.003574395785108209</v>
       </c>
       <c r="FU2">
-        <v>-0.06748808920383453</v>
+        <v>-0.06351003050804138</v>
       </c>
       <c r="FV2">
-        <v>-0.02519502490758896</v>
+        <v>-0.02323909476399422</v>
       </c>
       <c r="FW2">
-        <v>-0.01066732127219439</v>
+        <v>-0.01043671369552612</v>
       </c>
       <c r="FX2">
-        <v>-0.00189427228178829</v>
+        <v>0.002384470077231526</v>
       </c>
       <c r="FY2">
-        <v>0.0006104747299104929</v>
+        <v>-0.007164733484387398</v>
       </c>
       <c r="FZ2">
-        <v>0.001760736689902842</v>
+        <v>0.002648689085617661</v>
       </c>
       <c r="GA2">
-        <v>-0.01764698326587677</v>
+        <v>-0.03099774196743965</v>
       </c>
       <c r="GB2">
-        <v>0.0105459401383996</v>
+        <v>0.009746579453349113</v>
       </c>
       <c r="GC2">
-        <v>-0.08403751999139786</v>
+        <v>-0.09778282791376114</v>
       </c>
       <c r="GD2">
-        <v>0.03807543218135834</v>
+        <v>0.03452868387103081</v>
       </c>
       <c r="GE2">
-        <v>-0.009181746281683445</v>
+        <v>-0.008120909333229065</v>
       </c>
       <c r="GF2">
-        <v>-0.03468838706612587</v>
+        <v>-0.02697977237403393</v>
       </c>
       <c r="GG2">
-        <v>-0.03763075545430183</v>
+        <v>-0.03121781535446644</v>
       </c>
       <c r="GH2">
-        <v>0.003923874348402023</v>
+        <v>-0.01059339009225368</v>
       </c>
       <c r="GI2">
-        <v>-0.0954924076795578</v>
+        <v>-0.09978330135345459</v>
       </c>
       <c r="GJ2">
-        <v>-0.006972178351134062</v>
+        <v>-0.01091011613607407</v>
       </c>
       <c r="GK2">
-        <v>-0.04261714965105057</v>
+        <v>-0.04010450839996338</v>
       </c>
       <c r="GL2">
-        <v>-0.1034059971570969</v>
+        <v>-0.1103976145386696</v>
       </c>
       <c r="GM2">
-        <v>0.09045856446027756</v>
+        <v>0.09392167627811432</v>
       </c>
       <c r="GN2">
-        <v>0.03675113990902901</v>
+        <v>0.04165573418140411</v>
       </c>
       <c r="GO2">
-        <v>0.0364682748913765</v>
+        <v>0.03196373581886292</v>
       </c>
       <c r="GP2">
-        <v>0.001762477215379477</v>
+        <v>0.003210537135601044</v>
       </c>
       <c r="GQ2">
-        <v>-0.005020324140787125</v>
+        <v>-0.00936440285295248</v>
       </c>
       <c r="GR2">
-        <v>0.001405031303875148</v>
+        <v>-0.01385046634823084</v>
       </c>
       <c r="GS2">
-        <v>0.05928320810198784</v>
+        <v>0.0685325413942337</v>
       </c>
       <c r="GT2">
-        <v>0.001498036202974617</v>
+        <v>0.004772065207362175</v>
       </c>
       <c r="GU2">
-        <v>0.01479780301451683</v>
+        <v>0.008802058175206184</v>
       </c>
       <c r="GV2">
-        <v>0.006926562171429396</v>
+        <v>0.0126054473221302</v>
       </c>
       <c r="GW2">
-        <v>0.02086347155272961</v>
+        <v>0.02031245455145836</v>
       </c>
       <c r="GX2">
-        <v>-0.002648110035806894</v>
+        <v>-0.000104627113614697</v>
       </c>
       <c r="GY2">
-        <v>0.005058462265878916</v>
+        <v>0.004956891760230064</v>
       </c>
     </row>
   </sheetData>

--- a/static/Models/Regression/Equation/Metals.xlsx
+++ b/static/Models/Regression/Equation/Metals.xlsx
@@ -1473,626 +1473,626 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2024-03-04</t>
+          <t>2024-03-05</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-0.01158187352120876</v>
+        <v>-0.009613037109375</v>
       </c>
       <c r="C2" t="n">
-        <v>-0.009326751343905926</v>
+        <v>-0.01338562183082104</v>
       </c>
       <c r="D2" t="n">
-        <v>-0.02162999846041203</v>
+        <v>-0.01907237805426121</v>
       </c>
       <c r="E2" t="n">
-        <v>0.07838777452707291</v>
+        <v>0.06946470588445663</v>
       </c>
       <c r="F2" t="n">
-        <v>-0.008484125137329102</v>
+        <v>0.005068420898169279</v>
       </c>
       <c r="G2" t="n">
-        <v>0.09272827208042145</v>
+        <v>0.08257656544446945</v>
       </c>
       <c r="H2" t="n">
-        <v>0.01415547449141741</v>
+        <v>0.003063088748604059</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.009101769886910915</v>
+        <v>-0.007537355646491051</v>
       </c>
       <c r="J2" t="n">
-        <v>-0.185451865196228</v>
+        <v>-0.1811824589967728</v>
       </c>
       <c r="K2" t="n">
-        <v>-0.0006492753745988011</v>
+        <v>-0.005096944514662027</v>
       </c>
       <c r="L2" t="n">
-        <v>-0.003048768732696772</v>
+        <v>0.006981355603784323</v>
       </c>
       <c r="M2" t="n">
-        <v>0.004312342498451471</v>
+        <v>-0.0002495820517651737</v>
       </c>
       <c r="N2" t="n">
-        <v>-0.002714298898354173</v>
+        <v>0.002838934538885951</v>
       </c>
       <c r="O2" t="n">
-        <v>0.06299251317977905</v>
+        <v>0.06610601395368576</v>
       </c>
       <c r="P2" t="n">
-        <v>0.02034372836351395</v>
+        <v>0.01039212942123413</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.02835558913648129</v>
+        <v>0.03664661571383476</v>
       </c>
       <c r="R2" t="n">
-        <v>-0.009199268184602261</v>
+        <v>-0.001568798790685833</v>
       </c>
       <c r="S2" t="n">
-        <v>-0.01253123767673969</v>
+        <v>-0.01061510294675827</v>
       </c>
       <c r="T2" t="n">
-        <v>-0.0193560179322958</v>
+        <v>-0.0185923557728529</v>
       </c>
       <c r="U2" t="n">
-        <v>0.005808629095554352</v>
+        <v>0.0115315979346633</v>
       </c>
       <c r="V2" t="n">
-        <v>0.0003624223754741251</v>
+        <v>0.003444832284003496</v>
       </c>
       <c r="W2" t="n">
-        <v>0.1084357872605324</v>
+        <v>0.1141886785626411</v>
       </c>
       <c r="X2" t="n">
-        <v>0.008940998464822769</v>
+        <v>0.00584067590534687</v>
       </c>
       <c r="Y2" t="n">
-        <v>0.06799480319023132</v>
+        <v>0.07132679224014282</v>
       </c>
       <c r="Z2" t="n">
-        <v>0.09367889910936356</v>
+        <v>0.07867971807718277</v>
       </c>
       <c r="AA2" t="n">
-        <v>-0.006302820518612862</v>
+        <v>0.001733304234221578</v>
       </c>
       <c r="AB2" t="n">
-        <v>-0.02516518905758858</v>
+        <v>-0.01772747188806534</v>
       </c>
       <c r="AC2" t="n">
-        <v>-0.0398530438542366</v>
+        <v>-0.03790803998708725</v>
       </c>
       <c r="AD2" t="n">
-        <v>-0.02766218408942223</v>
+        <v>-0.02796581201255322</v>
       </c>
       <c r="AE2" t="n">
-        <v>0.02245775796473026</v>
+        <v>0.03321688622236252</v>
       </c>
       <c r="AF2" t="n">
-        <v>-0.001481690211221576</v>
+        <v>-0.006590545643121004</v>
       </c>
       <c r="AG2" t="n">
-        <v>0.00509659992530942</v>
+        <v>0.008399446494877338</v>
       </c>
       <c r="AH2" t="n">
-        <v>-0.2088368833065033</v>
+        <v>-0.2199687361717224</v>
       </c>
       <c r="AI2" t="n">
-        <v>-0.05469551309943199</v>
+        <v>-0.047164186835289</v>
       </c>
       <c r="AJ2" t="n">
-        <v>0.007820295169949532</v>
+        <v>0.006409600842744112</v>
       </c>
       <c r="AK2" t="n">
-        <v>0.009401788935065269</v>
+        <v>0.0005192464450374246</v>
       </c>
       <c r="AL2" t="n">
-        <v>-0.002736848080530763</v>
+        <v>0.004196017049252987</v>
       </c>
       <c r="AM2" t="n">
-        <v>0.04173830524086952</v>
+        <v>0.03796564042568207</v>
       </c>
       <c r="AN2" t="n">
-        <v>-0.01438003778457642</v>
+        <v>-0.02614142186939716</v>
       </c>
       <c r="AO2" t="n">
-        <v>0.004563208669424057</v>
+        <v>0.01538548432290554</v>
       </c>
       <c r="AP2" t="n">
-        <v>0.05008246004581451</v>
+        <v>0.04065331816673279</v>
       </c>
       <c r="AQ2" t="n">
-        <v>-0.01236977986991405</v>
+        <v>-0.008190210908651352</v>
       </c>
       <c r="AR2" t="n">
-        <v>-0.01492681540548801</v>
+        <v>-0.02101000770926476</v>
       </c>
       <c r="AS2" t="n">
-        <v>0.04849307239055634</v>
+        <v>0.03776449710130692</v>
       </c>
       <c r="AT2" t="n">
-        <v>0.04978213086724281</v>
+        <v>0.03900846838951111</v>
       </c>
       <c r="AU2" t="n">
-        <v>-0.0871737077832222</v>
+        <v>-0.08826924115419388</v>
       </c>
       <c r="AV2" t="n">
-        <v>-0.04706889763474464</v>
+        <v>-0.04732947424054146</v>
       </c>
       <c r="AW2" t="n">
-        <v>-0.01145707257091999</v>
+        <v>-0.01879135705530643</v>
       </c>
       <c r="AX2" t="n">
-        <v>-0.009862438775599003</v>
+        <v>-0.01715868897736073</v>
       </c>
       <c r="AY2" t="n">
-        <v>-0.09085581451654434</v>
+        <v>-0.08406227827072144</v>
       </c>
       <c r="AZ2" t="n">
-        <v>0.01983755640685558</v>
+        <v>0.0144562991335988</v>
       </c>
       <c r="BA2" t="n">
-        <v>-0.05980556830763817</v>
+        <v>-0.07462313026189804</v>
       </c>
       <c r="BB2" t="n">
-        <v>-0.05482317879796028</v>
+        <v>-0.04529186338186264</v>
       </c>
       <c r="BC2" t="n">
-        <v>-0.01275024656206369</v>
+        <v>-0.01581419445574284</v>
       </c>
       <c r="BD2" t="n">
-        <v>0.1096833273768425</v>
+        <v>0.1093039140105247</v>
       </c>
       <c r="BE2" t="n">
-        <v>-0.009201047942042351</v>
+        <v>-0.003711530240252614</v>
       </c>
       <c r="BF2" t="n">
-        <v>0.04254325479269028</v>
+        <v>0.04903093725442886</v>
       </c>
       <c r="BG2" t="n">
-        <v>0.03386609256267548</v>
+        <v>0.02950400859117508</v>
       </c>
       <c r="BH2" t="n">
-        <v>-0.005169439129531384</v>
+        <v>0.001892698695883155</v>
       </c>
       <c r="BI2" t="n">
-        <v>0.1175477877259254</v>
+        <v>0.1187848746776581</v>
       </c>
       <c r="BJ2" t="n">
-        <v>-0.03479462862014771</v>
+        <v>-0.04292921349406242</v>
       </c>
       <c r="BK2" t="n">
-        <v>-0.01122563518583775</v>
+        <v>-0.01742562651634216</v>
       </c>
       <c r="BL2" t="n">
-        <v>0.01986101642251015</v>
+        <v>0.01387729682028294</v>
       </c>
       <c r="BM2" t="n">
-        <v>0.008184371516108513</v>
+        <v>0.009849978610873222</v>
       </c>
       <c r="BN2" t="n">
-        <v>-0.08061183243989944</v>
+        <v>-0.0745241641998291</v>
       </c>
       <c r="BO2" t="n">
-        <v>0.02774553559720516</v>
+        <v>0.03164391964673996</v>
       </c>
       <c r="BP2" t="n">
-        <v>0.02263135649263859</v>
+        <v>0.03119258396327496</v>
       </c>
       <c r="BQ2" t="n">
-        <v>0.003000642405822873</v>
+        <v>0.01203485671430826</v>
       </c>
       <c r="BR2" t="n">
-        <v>0.0007133735925890505</v>
+        <v>-0.003831016598269343</v>
       </c>
       <c r="BS2" t="n">
-        <v>-0.01083457842469215</v>
+        <v>-0.0003550174296833575</v>
       </c>
       <c r="BT2" t="n">
-        <v>0.002135583898052573</v>
+        <v>-0.004209716804325581</v>
       </c>
       <c r="BU2" t="n">
-        <v>0.008185411803424358</v>
+        <v>0.005617606453597546</v>
       </c>
       <c r="BV2" t="n">
-        <v>-0.01320284232497215</v>
+        <v>-0.02694053761661053</v>
       </c>
       <c r="BW2" t="n">
-        <v>0.0009240126237273216</v>
+        <v>-0.006291959900408983</v>
       </c>
       <c r="BX2" t="n">
-        <v>0.1310744136571884</v>
+        <v>0.1353133171796799</v>
       </c>
       <c r="BY2" t="n">
-        <v>-0.01539785880595446</v>
+        <v>-0.01824083365499973</v>
       </c>
       <c r="BZ2" t="n">
-        <v>0.03376924246549606</v>
+        <v>0.03935954347252846</v>
       </c>
       <c r="CA2" t="n">
-        <v>0.01778998970985413</v>
+        <v>0.01495790388435125</v>
       </c>
       <c r="CB2" t="n">
-        <v>-0.1131998896598816</v>
+        <v>-0.1193270981311798</v>
       </c>
       <c r="CC2" t="n">
-        <v>0.006486885715276003</v>
+        <v>0.004880977794528008</v>
       </c>
       <c r="CD2" t="n">
-        <v>0.00265127164311707</v>
+        <v>-0.001031251042149961</v>
       </c>
       <c r="CE2" t="n">
-        <v>0.03545486927032471</v>
+        <v>0.0507977195084095</v>
       </c>
       <c r="CF2" t="n">
-        <v>0.03407738357782364</v>
+        <v>0.01790682040154934</v>
       </c>
       <c r="CG2" t="n">
-        <v>-0.007408459670841694</v>
+        <v>0.003850311506539583</v>
       </c>
       <c r="CH2" t="n">
-        <v>-0.02634617686271667</v>
+        <v>-0.02556980401277542</v>
       </c>
       <c r="CI2" t="n">
-        <v>-0.03539503738284111</v>
+        <v>-0.03525010123848915</v>
       </c>
       <c r="CJ2" t="n">
-        <v>0.02701297216117382</v>
+        <v>0.0480852946639061</v>
       </c>
       <c r="CK2" t="n">
-        <v>0.01574822887778282</v>
+        <v>0.00421714223921299</v>
       </c>
       <c r="CL2" t="n">
-        <v>-0.0004049958952236921</v>
+        <v>-0.003188576549291611</v>
       </c>
       <c r="CM2" t="n">
-        <v>0.08714235574007034</v>
+        <v>0.08194508403539658</v>
       </c>
       <c r="CN2" t="n">
-        <v>-0.00790048111230135</v>
+        <v>-0.00283308164216578</v>
       </c>
       <c r="CO2" t="n">
-        <v>0.002437664894387126</v>
+        <v>0.006430968176573515</v>
       </c>
       <c r="CP2" t="n">
-        <v>-0.05054361373186111</v>
+        <v>-0.03867734223604202</v>
       </c>
       <c r="CQ2" t="n">
-        <v>0.03604418039321899</v>
+        <v>0.01976217143237591</v>
       </c>
       <c r="CR2" t="n">
-        <v>-0.001090039266273379</v>
+        <v>0.007755011320114136</v>
       </c>
       <c r="CS2" t="n">
-        <v>0.004921120591461658</v>
+        <v>0.003812097944319248</v>
       </c>
       <c r="CT2" t="n">
-        <v>0.003617262933403254</v>
+        <v>-4.907985567115247e-05</v>
       </c>
       <c r="CU2" t="n">
-        <v>0.01608463190495968</v>
+        <v>0.007634847424924374</v>
       </c>
       <c r="CV2" t="n">
-        <v>0.002505754586309195</v>
+        <v>-0.001291448250412941</v>
       </c>
       <c r="CW2" t="n">
-        <v>0.01786475628614426</v>
+        <v>0.0212103333324194</v>
       </c>
       <c r="CX2" t="n">
-        <v>0.01320901140570641</v>
+        <v>0.01349824946373701</v>
       </c>
       <c r="CY2" t="n">
-        <v>-0.02873809821903706</v>
+        <v>-0.03536467999219894</v>
       </c>
       <c r="CZ2" t="n">
-        <v>0.001993922749534249</v>
+        <v>-0.001948082121089101</v>
       </c>
       <c r="DA2" t="n">
-        <v>-0.04818052798509598</v>
+        <v>-0.04534772783517838</v>
       </c>
       <c r="DB2" t="n">
-        <v>-0.03716840222477913</v>
+        <v>-0.04443779960274696</v>
       </c>
       <c r="DC2" t="n">
-        <v>0.0002607392671052366</v>
+        <v>0.003699327819049358</v>
       </c>
       <c r="DD2" t="n">
-        <v>0.2418904602527618</v>
+        <v>0.2394647747278214</v>
       </c>
       <c r="DE2" t="n">
-        <v>-0.006635784171521664</v>
+        <v>-0.0053278598934412</v>
       </c>
       <c r="DF2" t="n">
-        <v>0.05672472715377808</v>
+        <v>0.04310612007975578</v>
       </c>
       <c r="DG2" t="n">
-        <v>0.01228789519518614</v>
+        <v>0.007006146479398012</v>
       </c>
       <c r="DH2" t="n">
-        <v>-0.01394031476229429</v>
+        <v>-0.02942194789648056</v>
       </c>
       <c r="DI2" t="n">
-        <v>0.003258871380239725</v>
+        <v>-0.007884704507887363</v>
       </c>
       <c r="DJ2" t="n">
-        <v>0.07983574271202087</v>
+        <v>0.08230867981910706</v>
       </c>
       <c r="DK2" t="n">
-        <v>-0.1193839535117149</v>
+        <v>-0.1124652177095413</v>
       </c>
       <c r="DL2" t="n">
-        <v>-0.1410854607820511</v>
+        <v>-0.1346764862537384</v>
       </c>
       <c r="DM2" t="n">
-        <v>-0.005769792012870312</v>
+        <v>-0.01508382987231016</v>
       </c>
       <c r="DN2" t="n">
-        <v>-0.0497528538107872</v>
+        <v>-0.04723506793379784</v>
       </c>
       <c r="DO2" t="n">
-        <v>-0.01197503507137299</v>
+        <v>-0.02023281715810299</v>
       </c>
       <c r="DP2" t="n">
-        <v>-0.01267864648252726</v>
+        <v>-0.01130986958742142</v>
       </c>
       <c r="DQ2" t="n">
-        <v>-0.0004080817743670195</v>
+        <v>3.621009091148153e-05</v>
       </c>
       <c r="DR2" t="n">
-        <v>0.009590965695679188</v>
+        <v>0.0073247030377388</v>
       </c>
       <c r="DS2" t="n">
-        <v>-0.04921947047114372</v>
+        <v>-0.05007590353488922</v>
       </c>
       <c r="DT2" t="n">
-        <v>0.04128580912947655</v>
+        <v>0.04805543273687363</v>
       </c>
       <c r="DU2" t="n">
-        <v>0.02707058563828468</v>
+        <v>0.02371150627732277</v>
       </c>
       <c r="DV2" t="n">
-        <v>-1.36331254907418e-05</v>
+        <v>0.00312810018658638</v>
       </c>
       <c r="DW2" t="n">
-        <v>-0.003501329338178039</v>
+        <v>-0.002825929317623377</v>
       </c>
       <c r="DX2" t="n">
-        <v>0.006668100133538246</v>
+        <v>0.006270779296755791</v>
       </c>
       <c r="DY2" t="n">
-        <v>0.012675441801548</v>
+        <v>0.01867418549954891</v>
       </c>
       <c r="DZ2" t="n">
-        <v>-0.001175345038063824</v>
+        <v>0.003606017446145415</v>
       </c>
       <c r="EA2" t="n">
-        <v>0.01717305369675159</v>
+        <v>0.0211874283850193</v>
       </c>
       <c r="EB2" t="n">
-        <v>-0.03291210532188416</v>
+        <v>-0.03427445515990257</v>
       </c>
       <c r="EC2" t="n">
-        <v>0.009157312102615833</v>
+        <v>0.007433423772454262</v>
       </c>
       <c r="ED2" t="n">
-        <v>0.1060931831598282</v>
+        <v>0.1054904013872147</v>
       </c>
       <c r="EE2" t="n">
-        <v>-0.009296332485973835</v>
+        <v>-0.009031198918819427</v>
       </c>
       <c r="EF2" t="n">
-        <v>-0.03999796137213707</v>
+        <v>-0.0476597473025322</v>
       </c>
       <c r="EG2" t="n">
-        <v>0.04064778238534927</v>
+        <v>0.04183929786086082</v>
       </c>
       <c r="EH2" t="n">
-        <v>-0.2620098888874054</v>
+        <v>-0.2581500113010406</v>
       </c>
       <c r="EI2" t="n">
-        <v>0.01880435459315777</v>
+        <v>0.02416245453059673</v>
       </c>
       <c r="EJ2" t="n">
-        <v>0.02722201310098171</v>
+        <v>0.02951754629611969</v>
       </c>
       <c r="EK2" t="n">
-        <v>-0.003431833116337657</v>
+        <v>-0.006657038815319538</v>
       </c>
       <c r="EL2" t="n">
-        <v>-0.008820487186312675</v>
+        <v>-0.007989084348082542</v>
       </c>
       <c r="EM2" t="n">
-        <v>-0.08234138786792755</v>
+        <v>-0.09190750122070312</v>
       </c>
       <c r="EN2" t="n">
-        <v>-0.07554040104150772</v>
+        <v>-0.07964592427015305</v>
       </c>
       <c r="EO2" t="n">
-        <v>0.08555851131677628</v>
+        <v>0.1045831814408302</v>
       </c>
       <c r="EP2" t="n">
-        <v>0.06716404110193253</v>
+        <v>0.05146672576665878</v>
       </c>
       <c r="EQ2" t="n">
-        <v>0.02698300220072269</v>
+        <v>0.01157223060727119</v>
       </c>
       <c r="ER2" t="n">
-        <v>-0.003522506915032864</v>
+        <v>0.005194815341383219</v>
       </c>
       <c r="ES2" t="n">
-        <v>-0.02077745273709297</v>
+        <v>-0.02174376510083675</v>
       </c>
       <c r="ET2" t="n">
-        <v>0.04107983410358429</v>
+        <v>0.03564797341823578</v>
       </c>
       <c r="EU2" t="n">
-        <v>-0.07406051456928253</v>
+        <v>-0.07376158237457275</v>
       </c>
       <c r="EV2" t="n">
-        <v>-0.009355286136269569</v>
+        <v>-0.003421995788812637</v>
       </c>
       <c r="EW2" t="n">
-        <v>0.1333585530519485</v>
+        <v>0.1382932960987091</v>
       </c>
       <c r="EX2" t="n">
-        <v>0.001847555162385106</v>
+        <v>0.007866005413234234</v>
       </c>
       <c r="EY2" t="n">
-        <v>-0.0116871315985918</v>
+        <v>-0.01109322160482407</v>
       </c>
       <c r="EZ2" t="n">
-        <v>-0.08081488311290741</v>
+        <v>-0.0814705565571785</v>
       </c>
       <c r="FA2" t="n">
-        <v>0.005927071906626225</v>
+        <v>0.003015752881765366</v>
       </c>
       <c r="FB2" t="n">
-        <v>0.002379217417910695</v>
+        <v>0.01042360998690128</v>
       </c>
       <c r="FC2" t="n">
-        <v>-0.0230921134352684</v>
+        <v>-0.03844976052641869</v>
       </c>
       <c r="FD2" t="n">
-        <v>-0.003275497583672404</v>
+        <v>-0.005465959198772907</v>
       </c>
       <c r="FE2" t="n">
-        <v>0.01430207584053278</v>
+        <v>0.0126189673319459</v>
       </c>
       <c r="FF2" t="n">
-        <v>0.002567355055361986</v>
+        <v>-0.009831315837800503</v>
       </c>
       <c r="FG2" t="n">
-        <v>-0.1772998720407486</v>
+        <v>-0.1770971715450287</v>
       </c>
       <c r="FH2" t="n">
-        <v>-0.002655615797266364</v>
+        <v>-0.008992705494165421</v>
       </c>
       <c r="FI2" t="n">
-        <v>0.02228121273219585</v>
+        <v>0.02562529221177101</v>
       </c>
       <c r="FJ2" t="n">
-        <v>-0.04077083244919777</v>
+        <v>-0.04683846980333328</v>
       </c>
       <c r="FK2" t="n">
-        <v>-0.03208069503307343</v>
+        <v>-0.04363873600959778</v>
       </c>
       <c r="FL2" t="n">
-        <v>-0.08681034296751022</v>
+        <v>-0.0833749920129776</v>
       </c>
       <c r="FM2" t="n">
-        <v>0.06424742192029953</v>
+        <v>0.05338378623127937</v>
       </c>
       <c r="FN2" t="n">
-        <v>-0.02617565914988518</v>
+        <v>-0.0305600930005312</v>
       </c>
       <c r="FO2" t="n">
-        <v>0.01097256690263748</v>
+        <v>0.004667051136493683</v>
       </c>
       <c r="FP2" t="n">
-        <v>0.01160300709307194</v>
+        <v>0.007452159188687801</v>
       </c>
       <c r="FQ2" t="n">
-        <v>-0.002204805379733443</v>
+        <v>-0.002470509381964803</v>
       </c>
       <c r="FR2" t="n">
-        <v>-0.0009054057882167399</v>
+        <v>0.003352166851982474</v>
       </c>
       <c r="FS2" t="n">
-        <v>0.003730518277734518</v>
+        <v>7.399541209451854e-05</v>
       </c>
       <c r="FT2" t="n">
-        <v>0.004468194209039211</v>
+        <v>0.01012051105499268</v>
       </c>
       <c r="FU2" t="n">
-        <v>-0.06204806640744209</v>
+        <v>-0.06077645346522331</v>
       </c>
       <c r="FV2" t="n">
-        <v>-0.02275197766721249</v>
+        <v>-0.02874639444053173</v>
       </c>
       <c r="FW2" t="n">
-        <v>-0.01294091437011957</v>
+        <v>-0.009968179278075695</v>
       </c>
       <c r="FX2" t="n">
-        <v>0.00960366427898407</v>
+        <v>0.005050058010965586</v>
       </c>
       <c r="FY2" t="n">
-        <v>-0.0002516083768568933</v>
+        <v>0.0005610770313069224</v>
       </c>
       <c r="FZ2" t="n">
-        <v>-0.005579998251050711</v>
+        <v>0.001190998358651996</v>
       </c>
       <c r="GA2" t="n">
-        <v>-0.02892960980534554</v>
+        <v>-0.02633014693856239</v>
       </c>
       <c r="GB2" t="n">
-        <v>0.008319387212395668</v>
+        <v>0.006428971886634827</v>
       </c>
       <c r="GC2" t="n">
-        <v>-0.0971386507153511</v>
+        <v>-0.08811479061841965</v>
       </c>
       <c r="GD2" t="n">
-        <v>0.0379602238535881</v>
+        <v>0.04183976724743843</v>
       </c>
       <c r="GE2" t="n">
-        <v>-0.006612735334783792</v>
+        <v>-0.005544877145439386</v>
       </c>
       <c r="GF2" t="n">
-        <v>-0.02948619239032269</v>
+        <v>-0.01548137422651052</v>
       </c>
       <c r="GG2" t="n">
-        <v>-0.03443028405308723</v>
+        <v>-0.03629229590296745</v>
       </c>
       <c r="GH2" t="n">
-        <v>-0.01202292274683714</v>
+        <v>0.001284977770410478</v>
       </c>
       <c r="GI2" t="n">
-        <v>-0.09483658522367477</v>
+        <v>-0.08439508080482483</v>
       </c>
       <c r="GJ2" t="n">
-        <v>-0.008811868727207184</v>
+        <v>-0.004190751817077398</v>
       </c>
       <c r="GK2" t="n">
-        <v>-0.04058217257261276</v>
+        <v>-0.03401192277669907</v>
       </c>
       <c r="GL2" t="n">
-        <v>-0.1168723329901695</v>
+        <v>-0.123800203204155</v>
       </c>
       <c r="GM2" t="n">
-        <v>0.09486441314220428</v>
+        <v>0.1001301631331444</v>
       </c>
       <c r="GN2" t="n">
-        <v>0.03656963631510735</v>
+        <v>0.02921979688107967</v>
       </c>
       <c r="GO2" t="n">
-        <v>0.03164785355329514</v>
+        <v>0.03079619631171227</v>
       </c>
       <c r="GP2" t="n">
-        <v>0.001993496436625719</v>
+        <v>0.002393136732280254</v>
       </c>
       <c r="GQ2" t="n">
-        <v>-0.01238415483385324</v>
+        <v>-0.00496593676507473</v>
       </c>
       <c r="GR2" t="n">
-        <v>-0.006363586522638798</v>
+        <v>-0.00972363818436861</v>
       </c>
       <c r="GS2" t="n">
-        <v>0.06313049048185349</v>
+        <v>0.05646952614188194</v>
       </c>
       <c r="GT2" t="n">
-        <v>0.009963476099073887</v>
+        <v>0.01228138245642185</v>
       </c>
       <c r="GU2" t="n">
-        <v>0.01154129207134247</v>
+        <v>0.005425181705504656</v>
       </c>
       <c r="GV2" t="n">
-        <v>0.01032528933137655</v>
+        <v>0.006469432730227709</v>
       </c>
       <c r="GW2" t="n">
-        <v>0.0203303936868906</v>
+        <v>0.0293449554592371</v>
       </c>
       <c r="GX2" t="n">
-        <v>0.0003574176225811243</v>
+        <v>0.007303725928068161</v>
       </c>
       <c r="GY2" t="n">
-        <v>0.004347833804786205</v>
+        <v>0.003368454985320568</v>
       </c>
     </row>
   </sheetData>

--- a/static/Models/Regression/Equation/Metals.xlsx
+++ b/static/Models/Regression/Equation/Metals.xlsx
@@ -1473,626 +1473,626 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2024-03-05</t>
+          <t>2024-03-06</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-0.009613037109375</v>
+        <v>-0.006274053826928139</v>
       </c>
       <c r="C2" t="n">
-        <v>-0.01338562183082104</v>
+        <v>-0.01037204172462225</v>
       </c>
       <c r="D2" t="n">
-        <v>-0.01907237805426121</v>
+        <v>-0.01915227808058262</v>
       </c>
       <c r="E2" t="n">
-        <v>0.06946470588445663</v>
+        <v>0.06709734350442886</v>
       </c>
       <c r="F2" t="n">
-        <v>0.005068420898169279</v>
+        <v>0.004252576734870672</v>
       </c>
       <c r="G2" t="n">
-        <v>0.08257656544446945</v>
+        <v>0.05990045517683029</v>
       </c>
       <c r="H2" t="n">
-        <v>0.003063088748604059</v>
+        <v>-0.00412182230502367</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.007537355646491051</v>
+        <v>-0.007216649129986763</v>
       </c>
       <c r="J2" t="n">
-        <v>-0.1811824589967728</v>
+        <v>-0.1814854443073273</v>
       </c>
       <c r="K2" t="n">
-        <v>-0.005096944514662027</v>
+        <v>-0.005068161059170961</v>
       </c>
       <c r="L2" t="n">
-        <v>0.006981355603784323</v>
+        <v>0.003472882555797696</v>
       </c>
       <c r="M2" t="n">
-        <v>-0.0002495820517651737</v>
+        <v>-0.0008157028933055699</v>
       </c>
       <c r="N2" t="n">
-        <v>0.002838934538885951</v>
+        <v>0.008847207762300968</v>
       </c>
       <c r="O2" t="n">
-        <v>0.06610601395368576</v>
+        <v>0.05674742162227631</v>
       </c>
       <c r="P2" t="n">
-        <v>0.01039212942123413</v>
+        <v>0.01172902248799801</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.03664661571383476</v>
+        <v>0.04183020442724228</v>
       </c>
       <c r="R2" t="n">
-        <v>-0.001568798790685833</v>
+        <v>-0.0006548434612341225</v>
       </c>
       <c r="S2" t="n">
-        <v>-0.01061510294675827</v>
+        <v>-0.01016970351338387</v>
       </c>
       <c r="T2" t="n">
-        <v>-0.0185923557728529</v>
+        <v>-0.02180957049131393</v>
       </c>
       <c r="U2" t="n">
-        <v>0.0115315979346633</v>
+        <v>0.006989131215959787</v>
       </c>
       <c r="V2" t="n">
-        <v>0.003444832284003496</v>
+        <v>0.004186708945780993</v>
       </c>
       <c r="W2" t="n">
-        <v>0.1141886785626411</v>
+        <v>0.1118075177073479</v>
       </c>
       <c r="X2" t="n">
-        <v>0.00584067590534687</v>
+        <v>0.006507045589387417</v>
       </c>
       <c r="Y2" t="n">
-        <v>0.07132679224014282</v>
+        <v>0.07489598542451859</v>
       </c>
       <c r="Z2" t="n">
-        <v>0.07867971807718277</v>
+        <v>0.06720799952745438</v>
       </c>
       <c r="AA2" t="n">
-        <v>0.001733304234221578</v>
+        <v>0.006546972785145044</v>
       </c>
       <c r="AB2" t="n">
-        <v>-0.01772747188806534</v>
+        <v>-0.02448586001992226</v>
       </c>
       <c r="AC2" t="n">
-        <v>-0.03790803998708725</v>
+        <v>-0.03671142086386681</v>
       </c>
       <c r="AD2" t="n">
-        <v>-0.02796581201255322</v>
+        <v>-0.0270939115434885</v>
       </c>
       <c r="AE2" t="n">
-        <v>0.03321688622236252</v>
+        <v>0.02828494645655155</v>
       </c>
       <c r="AF2" t="n">
-        <v>-0.006590545643121004</v>
+        <v>-0.006154345348477364</v>
       </c>
       <c r="AG2" t="n">
-        <v>0.008399446494877338</v>
+        <v>0.004498088266700506</v>
       </c>
       <c r="AH2" t="n">
-        <v>-0.2199687361717224</v>
+        <v>-0.2181920856237411</v>
       </c>
       <c r="AI2" t="n">
-        <v>-0.047164186835289</v>
+        <v>-0.05426448956131935</v>
       </c>
       <c r="AJ2" t="n">
-        <v>0.006409600842744112</v>
+        <v>0.01089001167565584</v>
       </c>
       <c r="AK2" t="n">
-        <v>0.0005192464450374246</v>
+        <v>-0.0008977652178145945</v>
       </c>
       <c r="AL2" t="n">
-        <v>0.004196017049252987</v>
+        <v>0.007425172720104456</v>
       </c>
       <c r="AM2" t="n">
-        <v>0.03796564042568207</v>
+        <v>0.03931307047605515</v>
       </c>
       <c r="AN2" t="n">
-        <v>-0.02614142186939716</v>
+        <v>-0.037321537733078</v>
       </c>
       <c r="AO2" t="n">
-        <v>0.01538548432290554</v>
+        <v>0.02079812996089458</v>
       </c>
       <c r="AP2" t="n">
-        <v>0.04065331816673279</v>
+        <v>0.0543421283364296</v>
       </c>
       <c r="AQ2" t="n">
-        <v>-0.008190210908651352</v>
+        <v>-0.007055277936160564</v>
       </c>
       <c r="AR2" t="n">
-        <v>-0.02101000770926476</v>
+        <v>-0.0146473990753293</v>
       </c>
       <c r="AS2" t="n">
-        <v>0.03776449710130692</v>
+        <v>0.01669248379766941</v>
       </c>
       <c r="AT2" t="n">
-        <v>0.03900846838951111</v>
+        <v>0.04186275973916054</v>
       </c>
       <c r="AU2" t="n">
-        <v>-0.08826924115419388</v>
+        <v>-0.08795467019081116</v>
       </c>
       <c r="AV2" t="n">
-        <v>-0.04732947424054146</v>
+        <v>-0.03760464861989021</v>
       </c>
       <c r="AW2" t="n">
-        <v>-0.01879135705530643</v>
+        <v>-0.01901423186063766</v>
       </c>
       <c r="AX2" t="n">
-        <v>-0.01715868897736073</v>
+        <v>-0.02219103090465069</v>
       </c>
       <c r="AY2" t="n">
-        <v>-0.08406227827072144</v>
+        <v>-0.08485960960388184</v>
       </c>
       <c r="AZ2" t="n">
-        <v>0.0144562991335988</v>
+        <v>0.01467735320329666</v>
       </c>
       <c r="BA2" t="n">
-        <v>-0.07462313026189804</v>
+        <v>-0.0768226757645607</v>
       </c>
       <c r="BB2" t="n">
-        <v>-0.04529186338186264</v>
+        <v>-0.04168680310249329</v>
       </c>
       <c r="BC2" t="n">
-        <v>-0.01581419445574284</v>
+        <v>-0.01795377023518085</v>
       </c>
       <c r="BD2" t="n">
-        <v>0.1093039140105247</v>
+        <v>0.1101496666669846</v>
       </c>
       <c r="BE2" t="n">
-        <v>-0.003711530240252614</v>
+        <v>-0.01329777669161558</v>
       </c>
       <c r="BF2" t="n">
-        <v>0.04903093725442886</v>
+        <v>0.05204550549387932</v>
       </c>
       <c r="BG2" t="n">
-        <v>0.02950400859117508</v>
+        <v>0.03065159171819687</v>
       </c>
       <c r="BH2" t="n">
-        <v>0.001892698695883155</v>
+        <v>-0.0005723915528506041</v>
       </c>
       <c r="BI2" t="n">
-        <v>0.1187848746776581</v>
+        <v>0.1186167970299721</v>
       </c>
       <c r="BJ2" t="n">
-        <v>-0.04292921349406242</v>
+        <v>-0.03501679003238678</v>
       </c>
       <c r="BK2" t="n">
-        <v>-0.01742562651634216</v>
+        <v>-0.01540348585695028</v>
       </c>
       <c r="BL2" t="n">
-        <v>0.01387729682028294</v>
+        <v>0.01492509990930557</v>
       </c>
       <c r="BM2" t="n">
-        <v>0.009849978610873222</v>
+        <v>0.01288976799696684</v>
       </c>
       <c r="BN2" t="n">
-        <v>-0.0745241641998291</v>
+        <v>-0.06176058202981949</v>
       </c>
       <c r="BO2" t="n">
-        <v>0.03164391964673996</v>
+        <v>0.02569450065493584</v>
       </c>
       <c r="BP2" t="n">
-        <v>0.03119258396327496</v>
+        <v>0.03175332397222519</v>
       </c>
       <c r="BQ2" t="n">
-        <v>0.01203485671430826</v>
+        <v>-0.0002975459210574627</v>
       </c>
       <c r="BR2" t="n">
-        <v>-0.003831016598269343</v>
+        <v>0.00306954188272357</v>
       </c>
       <c r="BS2" t="n">
-        <v>-0.0003550174296833575</v>
+        <v>0.001432003569789231</v>
       </c>
       <c r="BT2" t="n">
-        <v>-0.004209716804325581</v>
+        <v>-0.002994102658703923</v>
       </c>
       <c r="BU2" t="n">
-        <v>0.005617606453597546</v>
+        <v>0.007507549598813057</v>
       </c>
       <c r="BV2" t="n">
-        <v>-0.02694053761661053</v>
+        <v>-0.04356784373521805</v>
       </c>
       <c r="BW2" t="n">
-        <v>-0.006291959900408983</v>
+        <v>-0.002405153587460518</v>
       </c>
       <c r="BX2" t="n">
-        <v>0.1353133171796799</v>
+        <v>0.1348443329334259</v>
       </c>
       <c r="BY2" t="n">
-        <v>-0.01824083365499973</v>
+        <v>-0.01551784947514534</v>
       </c>
       <c r="BZ2" t="n">
-        <v>0.03935954347252846</v>
+        <v>0.03953146189451218</v>
       </c>
       <c r="CA2" t="n">
-        <v>0.01495790388435125</v>
+        <v>0.01521263457834721</v>
       </c>
       <c r="CB2" t="n">
-        <v>-0.1193270981311798</v>
+        <v>-0.1132718101143837</v>
       </c>
       <c r="CC2" t="n">
-        <v>0.004880977794528008</v>
+        <v>0.005255493801087141</v>
       </c>
       <c r="CD2" t="n">
-        <v>-0.001031251042149961</v>
+        <v>0.005131997633725405</v>
       </c>
       <c r="CE2" t="n">
-        <v>0.0507977195084095</v>
+        <v>0.05773783847689629</v>
       </c>
       <c r="CF2" t="n">
-        <v>0.01790682040154934</v>
+        <v>0.01410789787769318</v>
       </c>
       <c r="CG2" t="n">
-        <v>0.003850311506539583</v>
+        <v>0.004067397210747004</v>
       </c>
       <c r="CH2" t="n">
-        <v>-0.02556980401277542</v>
+        <v>-0.02432197146117687</v>
       </c>
       <c r="CI2" t="n">
-        <v>-0.03525010123848915</v>
+        <v>-0.03410085663199425</v>
       </c>
       <c r="CJ2" t="n">
-        <v>0.0480852946639061</v>
+        <v>0.04794861748814583</v>
       </c>
       <c r="CK2" t="n">
-        <v>0.00421714223921299</v>
+        <v>0.005168936215341091</v>
       </c>
       <c r="CL2" t="n">
-        <v>-0.003188576549291611</v>
+        <v>-0.00313207320868969</v>
       </c>
       <c r="CM2" t="n">
-        <v>0.08194508403539658</v>
+        <v>0.07701180130243301</v>
       </c>
       <c r="CN2" t="n">
-        <v>-0.00283308164216578</v>
+        <v>0.004967020824551582</v>
       </c>
       <c r="CO2" t="n">
-        <v>0.006430968176573515</v>
+        <v>0.006602416280657053</v>
       </c>
       <c r="CP2" t="n">
-        <v>-0.03867734223604202</v>
+        <v>-0.03546495363116264</v>
       </c>
       <c r="CQ2" t="n">
-        <v>0.01976217143237591</v>
+        <v>0.01698503643274307</v>
       </c>
       <c r="CR2" t="n">
-        <v>0.007755011320114136</v>
+        <v>0.01232090033590794</v>
       </c>
       <c r="CS2" t="n">
-        <v>0.003812097944319248</v>
+        <v>0.005077498964965343</v>
       </c>
       <c r="CT2" t="n">
-        <v>-4.907985567115247e-05</v>
+        <v>1.57809099619044e-05</v>
       </c>
       <c r="CU2" t="n">
-        <v>0.007634847424924374</v>
+        <v>0.01396716013550758</v>
       </c>
       <c r="CV2" t="n">
-        <v>-0.001291448250412941</v>
+        <v>0.001410137629136443</v>
       </c>
       <c r="CW2" t="n">
-        <v>0.0212103333324194</v>
+        <v>0.03150006011128426</v>
       </c>
       <c r="CX2" t="n">
-        <v>0.01349824946373701</v>
+        <v>0.01174429897218943</v>
       </c>
       <c r="CY2" t="n">
-        <v>-0.03536467999219894</v>
+        <v>-0.03565485030412674</v>
       </c>
       <c r="CZ2" t="n">
-        <v>-0.001948082121089101</v>
+        <v>-0.0008330507553182542</v>
       </c>
       <c r="DA2" t="n">
-        <v>-0.04534772783517838</v>
+        <v>-0.05327203869819641</v>
       </c>
       <c r="DB2" t="n">
-        <v>-0.04443779960274696</v>
+        <v>-0.03552860394120216</v>
       </c>
       <c r="DC2" t="n">
-        <v>0.003699327819049358</v>
+        <v>0.0005022782715968788</v>
       </c>
       <c r="DD2" t="n">
-        <v>0.2394647747278214</v>
+        <v>0.2417585700750351</v>
       </c>
       <c r="DE2" t="n">
-        <v>-0.0053278598934412</v>
+        <v>-0.003882824210450053</v>
       </c>
       <c r="DF2" t="n">
-        <v>0.04310612007975578</v>
+        <v>0.04631923139095306</v>
       </c>
       <c r="DG2" t="n">
-        <v>0.007006146479398012</v>
+        <v>0.002570630051195621</v>
       </c>
       <c r="DH2" t="n">
-        <v>-0.02942194789648056</v>
+        <v>-0.03829504549503326</v>
       </c>
       <c r="DI2" t="n">
-        <v>-0.007884704507887363</v>
+        <v>-0.005628545768558979</v>
       </c>
       <c r="DJ2" t="n">
-        <v>0.08230867981910706</v>
+        <v>0.08279338479042053</v>
       </c>
       <c r="DK2" t="n">
-        <v>-0.1124652177095413</v>
+        <v>-0.1169944331049919</v>
       </c>
       <c r="DL2" t="n">
-        <v>-0.1346764862537384</v>
+        <v>-0.1395780891180038</v>
       </c>
       <c r="DM2" t="n">
-        <v>-0.01508382987231016</v>
+        <v>-0.0114506371319294</v>
       </c>
       <c r="DN2" t="n">
-        <v>-0.04723506793379784</v>
+        <v>-0.04575087502598763</v>
       </c>
       <c r="DO2" t="n">
-        <v>-0.02023281715810299</v>
+        <v>-0.0214688815176487</v>
       </c>
       <c r="DP2" t="n">
-        <v>-0.01130986958742142</v>
+        <v>-0.008735957555472851</v>
       </c>
       <c r="DQ2" t="n">
-        <v>3.621009091148153e-05</v>
+        <v>0.001352525199763477</v>
       </c>
       <c r="DR2" t="n">
-        <v>0.0073247030377388</v>
+        <v>0.004180756397545338</v>
       </c>
       <c r="DS2" t="n">
-        <v>-0.05007590353488922</v>
+        <v>-0.04650167748332024</v>
       </c>
       <c r="DT2" t="n">
-        <v>0.04805543273687363</v>
+        <v>0.05022238194942474</v>
       </c>
       <c r="DU2" t="n">
-        <v>0.02371150627732277</v>
+        <v>0.02000748924911022</v>
       </c>
       <c r="DV2" t="n">
-        <v>0.00312810018658638</v>
+        <v>0.0007228660979308188</v>
       </c>
       <c r="DW2" t="n">
-        <v>-0.002825929317623377</v>
+        <v>-0.00895878579467535</v>
       </c>
       <c r="DX2" t="n">
-        <v>0.006270779296755791</v>
+        <v>0.006892863661050797</v>
       </c>
       <c r="DY2" t="n">
-        <v>0.01867418549954891</v>
+        <v>0.01804510876536369</v>
       </c>
       <c r="DZ2" t="n">
-        <v>0.003606017446145415</v>
+        <v>-0.005432150792330503</v>
       </c>
       <c r="EA2" t="n">
-        <v>0.0211874283850193</v>
+        <v>0.008373950608074665</v>
       </c>
       <c r="EB2" t="n">
-        <v>-0.03427445515990257</v>
+        <v>-0.03285452723503113</v>
       </c>
       <c r="EC2" t="n">
-        <v>0.007433423772454262</v>
+        <v>0.00471536535769701</v>
       </c>
       <c r="ED2" t="n">
-        <v>0.1054904013872147</v>
+        <v>0.1026928052306175</v>
       </c>
       <c r="EE2" t="n">
-        <v>-0.009031198918819427</v>
+        <v>-0.008247571066021919</v>
       </c>
       <c r="EF2" t="n">
-        <v>-0.0476597473025322</v>
+        <v>-0.05683477222919464</v>
       </c>
       <c r="EG2" t="n">
-        <v>0.04183929786086082</v>
+        <v>0.04064005613327026</v>
       </c>
       <c r="EH2" t="n">
-        <v>-0.2581500113010406</v>
+        <v>-0.2558157742023468</v>
       </c>
       <c r="EI2" t="n">
-        <v>0.02416245453059673</v>
+        <v>0.0249667800962925</v>
       </c>
       <c r="EJ2" t="n">
-        <v>0.02951754629611969</v>
+        <v>0.03781640157103539</v>
       </c>
       <c r="EK2" t="n">
-        <v>-0.006657038815319538</v>
+        <v>-0.005968435667455196</v>
       </c>
       <c r="EL2" t="n">
-        <v>-0.007989084348082542</v>
+        <v>-0.008309297263622284</v>
       </c>
       <c r="EM2" t="n">
-        <v>-0.09190750122070312</v>
+        <v>-0.09257689118385315</v>
       </c>
       <c r="EN2" t="n">
-        <v>-0.07964592427015305</v>
+        <v>-0.07430704683065414</v>
       </c>
       <c r="EO2" t="n">
-        <v>0.1045831814408302</v>
+        <v>0.1036729961633682</v>
       </c>
       <c r="EP2" t="n">
-        <v>0.05146672576665878</v>
+        <v>0.04464674741029739</v>
       </c>
       <c r="EQ2" t="n">
-        <v>0.01157223060727119</v>
+        <v>-0.0006968763191252947</v>
       </c>
       <c r="ER2" t="n">
-        <v>0.005194815341383219</v>
+        <v>0.01307235844433308</v>
       </c>
       <c r="ES2" t="n">
-        <v>-0.02174376510083675</v>
+        <v>-0.01827115751802921</v>
       </c>
       <c r="ET2" t="n">
-        <v>0.03564797341823578</v>
+        <v>0.03512486815452576</v>
       </c>
       <c r="EU2" t="n">
-        <v>-0.07376158237457275</v>
+        <v>-0.06864598393440247</v>
       </c>
       <c r="EV2" t="n">
-        <v>-0.003421995788812637</v>
+        <v>-0.003144862130284309</v>
       </c>
       <c r="EW2" t="n">
-        <v>0.1382932960987091</v>
+        <v>0.1488492041826248</v>
       </c>
       <c r="EX2" t="n">
-        <v>0.007866005413234234</v>
+        <v>0.001113542704842985</v>
       </c>
       <c r="EY2" t="n">
-        <v>-0.01109322160482407</v>
+        <v>-0.008241099305450916</v>
       </c>
       <c r="EZ2" t="n">
-        <v>-0.0814705565571785</v>
+        <v>-0.08052393794059753</v>
       </c>
       <c r="FA2" t="n">
-        <v>0.003015752881765366</v>
+        <v>0.007012008689343929</v>
       </c>
       <c r="FB2" t="n">
-        <v>0.01042360998690128</v>
+        <v>0.01211953721940517</v>
       </c>
       <c r="FC2" t="n">
-        <v>-0.03844976052641869</v>
+        <v>-0.04558959603309631</v>
       </c>
       <c r="FD2" t="n">
-        <v>-0.005465959198772907</v>
+        <v>-0.001811995403841138</v>
       </c>
       <c r="FE2" t="n">
-        <v>0.0126189673319459</v>
+        <v>0.01705327816307545</v>
       </c>
       <c r="FF2" t="n">
-        <v>-0.009831315837800503</v>
+        <v>0.005555826239287853</v>
       </c>
       <c r="FG2" t="n">
-        <v>-0.1770971715450287</v>
+        <v>-0.174062579870224</v>
       </c>
       <c r="FH2" t="n">
-        <v>-0.008992705494165421</v>
+        <v>-0.0076106539927423</v>
       </c>
       <c r="FI2" t="n">
-        <v>0.02562529221177101</v>
+        <v>0.02939465828239918</v>
       </c>
       <c r="FJ2" t="n">
-        <v>-0.04683846980333328</v>
+        <v>-0.0428759939968586</v>
       </c>
       <c r="FK2" t="n">
-        <v>-0.04363873600959778</v>
+        <v>-0.04224538430571556</v>
       </c>
       <c r="FL2" t="n">
-        <v>-0.0833749920129776</v>
+        <v>-0.08307003229856491</v>
       </c>
       <c r="FM2" t="n">
-        <v>0.05338378623127937</v>
+        <v>0.04698733612895012</v>
       </c>
       <c r="FN2" t="n">
-        <v>-0.0305600930005312</v>
+        <v>-0.02898292616009712</v>
       </c>
       <c r="FO2" t="n">
-        <v>0.004667051136493683</v>
+        <v>0.0001189453323604539</v>
       </c>
       <c r="FP2" t="n">
-        <v>0.007452159188687801</v>
+        <v>0.004375618882477283</v>
       </c>
       <c r="FQ2" t="n">
-        <v>-0.002470509381964803</v>
+        <v>-0.002427482977509499</v>
       </c>
       <c r="FR2" t="n">
-        <v>0.003352166851982474</v>
+        <v>0.004718756303191185</v>
       </c>
       <c r="FS2" t="n">
-        <v>7.399541209451854e-05</v>
+        <v>1.030362545861863e-05</v>
       </c>
       <c r="FT2" t="n">
-        <v>0.01012051105499268</v>
+        <v>0.01011229120194912</v>
       </c>
       <c r="FU2" t="n">
-        <v>-0.06077645346522331</v>
+        <v>-0.06042801216244698</v>
       </c>
       <c r="FV2" t="n">
-        <v>-0.02874639444053173</v>
+        <v>-0.02644658088684082</v>
       </c>
       <c r="FW2" t="n">
-        <v>-0.009968179278075695</v>
+        <v>-0.009686212055385113</v>
       </c>
       <c r="FX2" t="n">
-        <v>0.005050058010965586</v>
+        <v>0.0008430395391769707</v>
       </c>
       <c r="FY2" t="n">
-        <v>0.0005610770313069224</v>
+        <v>-0.004817569628357887</v>
       </c>
       <c r="FZ2" t="n">
-        <v>0.001190998358651996</v>
+        <v>0.004588659852743149</v>
       </c>
       <c r="GA2" t="n">
-        <v>-0.02633014693856239</v>
+        <v>-0.02741059474647045</v>
       </c>
       <c r="GB2" t="n">
-        <v>0.006428971886634827</v>
+        <v>0.01022002752870321</v>
       </c>
       <c r="GC2" t="n">
-        <v>-0.08811479061841965</v>
+        <v>-0.09953278303146362</v>
       </c>
       <c r="GD2" t="n">
-        <v>0.04183976724743843</v>
+        <v>0.03213253989815712</v>
       </c>
       <c r="GE2" t="n">
-        <v>-0.005544877145439386</v>
+        <v>-0.005785537417978048</v>
       </c>
       <c r="GF2" t="n">
-        <v>-0.01548137422651052</v>
+        <v>-0.01446444541215897</v>
       </c>
       <c r="GG2" t="n">
-        <v>-0.03629229590296745</v>
+        <v>-0.03150816261768341</v>
       </c>
       <c r="GH2" t="n">
-        <v>0.001284977770410478</v>
+        <v>0.003129152115434408</v>
       </c>
       <c r="GI2" t="n">
-        <v>-0.08439508080482483</v>
+        <v>-0.09114760160446167</v>
       </c>
       <c r="GJ2" t="n">
-        <v>-0.004190751817077398</v>
+        <v>-5.583894744631834e-05</v>
       </c>
       <c r="GK2" t="n">
-        <v>-0.03401192277669907</v>
+        <v>-0.03307975456118584</v>
       </c>
       <c r="GL2" t="n">
-        <v>-0.123800203204155</v>
+        <v>-0.1280621290206909</v>
       </c>
       <c r="GM2" t="n">
-        <v>0.1001301631331444</v>
+        <v>0.1059769690036774</v>
       </c>
       <c r="GN2" t="n">
-        <v>0.02921979688107967</v>
+        <v>0.02892318926751614</v>
       </c>
       <c r="GO2" t="n">
-        <v>0.03079619631171227</v>
+        <v>0.03634341806173325</v>
       </c>
       <c r="GP2" t="n">
-        <v>0.002393136732280254</v>
+        <v>0.003400050569325686</v>
       </c>
       <c r="GQ2" t="n">
-        <v>-0.00496593676507473</v>
+        <v>2.985209721373394e-05</v>
       </c>
       <c r="GR2" t="n">
-        <v>-0.00972363818436861</v>
+        <v>-0.01282536052167416</v>
       </c>
       <c r="GS2" t="n">
-        <v>0.05646952614188194</v>
+        <v>0.05656319856643677</v>
       </c>
       <c r="GT2" t="n">
-        <v>0.01228138245642185</v>
+        <v>0.01300685666501522</v>
       </c>
       <c r="GU2" t="n">
-        <v>0.005425181705504656</v>
+        <v>0.004634283948689699</v>
       </c>
       <c r="GV2" t="n">
-        <v>0.006469432730227709</v>
+        <v>0.01273089740425348</v>
       </c>
       <c r="GW2" t="n">
-        <v>0.0293449554592371</v>
+        <v>0.02165721170604229</v>
       </c>
       <c r="GX2" t="n">
-        <v>0.007303725928068161</v>
+        <v>0.006576919462531805</v>
       </c>
       <c r="GY2" t="n">
-        <v>0.003368454985320568</v>
+        <v>0.004306064918637276</v>
       </c>
     </row>
   </sheetData>
